--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3368607.761115197</v>
+        <v>-3369345.863173175</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5299779071683</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.798663594716</v>
       </c>
       <c r="D11" t="n">
-        <v>201.711361634835</v>
+        <v>234.4183006703718</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9316036710608</v>
       </c>
       <c r="F11" t="n">
-        <v>285.1074313963141</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1417995066251</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5651068917549</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73868095902166</v>
+        <v>62.73868095902175</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.68013037605193</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.47378334587785</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3467894382926</v>
+        <v>206.3467894382927</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.6751670469428</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.5006396670091</v>
+        <v>78.80871526727947</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>43.1856935261182</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>48.83915184317436</v>
       </c>
       <c r="D12" t="n">
-        <v>23.92599149041882</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>33.84700162294709</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.31979999932267</v>
       </c>
       <c r="G12" t="n">
-        <v>13.55505769437116</v>
+        <v>13.55505769437128</v>
       </c>
       <c r="H12" t="n">
         <v>107.7416892983143</v>
       </c>
       <c r="I12" t="n">
-        <v>76.80395860762668</v>
+        <v>76.80395860762667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.2036010034283</v>
       </c>
       <c r="S12" t="n">
         <v>163.7287805460299</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06056880692607</v>
+        <v>165.3094477766808</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4522107443926</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V12" t="n">
-        <v>154.9883468443858</v>
+        <v>109.7222989554285</v>
       </c>
       <c r="W12" t="n">
-        <v>127.8029146657733</v>
+        <v>127.8029146657734</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.27519752425164</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.48471933435928</v>
+        <v>81.4847193343594</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.89725940646019</v>
+        <v>57.89725940645718</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1501208469756</v>
+        <v>45.15012084697571</v>
       </c>
       <c r="D13" t="n">
-        <v>26.81913443029262</v>
+        <v>26.81913443029273</v>
       </c>
       <c r="E13" t="n">
-        <v>24.78819208897244</v>
+        <v>24.78819208897255</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97258932557776</v>
+        <v>23.97258932557787</v>
       </c>
       <c r="G13" t="n">
-        <v>45.4669719039528</v>
+        <v>45.46697190395292</v>
       </c>
       <c r="H13" t="n">
-        <v>37.34774107736197</v>
+        <v>37.34774107736207</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46938936863553</v>
+        <v>24.46938936863564</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58498174211496</v>
+        <v>40.58498174211505</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05491548013238</v>
+        <v>96.05491548013248</v>
       </c>
       <c r="T13" t="n">
-        <v>105.1368800644954</v>
+        <v>105.1368800644955</v>
       </c>
       <c r="U13" t="n">
-        <v>163.8529554918232</v>
+        <v>163.8529554918233</v>
       </c>
       <c r="V13" t="n">
-        <v>130.7499189827124</v>
+        <v>130.7499189827125</v>
       </c>
       <c r="W13" t="n">
-        <v>163.9061448031888</v>
+        <v>163.9061448031889</v>
       </c>
       <c r="X13" t="n">
-        <v>103.9539278480825</v>
+        <v>103.9539278480826</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.56224178354148</v>
+        <v>96.56224178354159</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5299779071684</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.798663594716</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.4183006703718</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.9316036710608</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1074313963142</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1417995066252</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>188.8373744023019</v>
+        <v>210.5651068917549</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73868095902179</v>
+        <v>62.73868095902177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68013037605205</v>
+        <v>71.68013037605203</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47378334587785</v>
+        <v>76.28221560133558</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2492087872795</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.343684916328</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.1856935261182</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>48.83915184317436</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>23.92599149041894</v>
       </c>
       <c r="E15" t="n">
-        <v>33.8470016229472</v>
+        <v>132.5980960550338</v>
       </c>
       <c r="F15" t="n">
-        <v>21.31979999932267</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>135.7414897785979</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7416892983143</v>
       </c>
       <c r="I15" t="n">
-        <v>76.80395860762668</v>
+        <v>76.80395860762667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.32352056537571</v>
+        <v>77.20360100342833</v>
       </c>
       <c r="S15" t="n">
-        <v>41.54234846180331</v>
+        <v>41.5423484618033</v>
       </c>
       <c r="T15" t="n">
-        <v>197.2470008911528</v>
+        <v>75.06056880692618</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4522107443927</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V15" t="n">
-        <v>109.7222989554285</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>127.8029146657734</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>82.27519752425164</v>
       </c>
       <c r="Y15" t="n">
         <v>81.4847193343594</v>
@@ -1783,7 +1783,7 @@
         <v>37.34774107736208</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46938936863565</v>
+        <v>24.46938936863564</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58498174211507</v>
+        <v>40.58498174211506</v>
       </c>
       <c r="S16" t="n">
         <v>96.05491548013249</v>
@@ -1847,7 +1847,7 @@
         <v>143.7695513325316</v>
       </c>
       <c r="D17" t="n">
-        <v>133.3891884081873</v>
+        <v>133.3891884081874</v>
       </c>
       <c r="E17" t="n">
         <v>159.9024914088764</v>
@@ -1859,7 +1859,7 @@
         <v>191.1126872444408</v>
       </c>
       <c r="H17" t="n">
-        <v>109.5359946295704</v>
+        <v>109.5359946295705</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.22009652509503</v>
+        <v>28.22009652509507</v>
       </c>
       <c r="V17" t="n">
         <v>105.3176771761083</v>
       </c>
       <c r="W17" t="n">
-        <v>127.3145726541435</v>
+        <v>127.3145726541436</v>
       </c>
       <c r="X17" t="n">
-        <v>147.6460547847583</v>
+        <v>147.6460547847584</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.4715274048247</v>
+        <v>163.4715274048248</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1932,16 +1932,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>116.872153490514</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.80395860762668</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.20360100342833</v>
+        <v>68.22932471342115</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6386428286193</v>
+        <v>1.423098482208341</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>8.693186693244115</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>15.63076419036318</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>49.55543427124216</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.107767802311096</v>
+        <v>4.107767802311152</v>
       </c>
       <c r="U19" t="n">
-        <v>62.82384322963887</v>
+        <v>62.82384322963892</v>
       </c>
       <c r="V19" t="n">
-        <v>29.72080672052809</v>
+        <v>29.72080672052815</v>
       </c>
       <c r="W19" t="n">
-        <v>62.87703254100447</v>
+        <v>62.87703254100452</v>
       </c>
       <c r="X19" t="n">
-        <v>2.924815585898187</v>
+        <v>2.924815585898244</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>28.22009652509503</v>
       </c>
       <c r="V20" t="n">
-        <v>105.3176771761083</v>
+        <v>105.317677176109</v>
       </c>
       <c r="W20" t="n">
         <v>127.3145726541435</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7416892983143</v>
+        <v>49.18425555351079</v>
       </c>
       <c r="I21" t="n">
-        <v>76.80395860762668</v>
+        <v>76.80395860762667</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.20360100342833</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>48.58986505473286</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.7310239879589</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>59.98343169308806</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.107767802311096</v>
+        <v>4.107767802311095</v>
       </c>
       <c r="U22" t="n">
         <v>62.82384322963887</v>
@@ -2299,7 +2299,7 @@
         <v>29.72080672052809</v>
       </c>
       <c r="W22" t="n">
-        <v>258.5914882220515</v>
+        <v>62.87703254100447</v>
       </c>
       <c r="X22" t="n">
         <v>2.924815585898187</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.22009652509502</v>
+        <v>28.22009652509503</v>
       </c>
       <c r="V23" t="n">
         <v>105.3176771761083</v>
@@ -2400,13 +2400,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>124.2615022291575</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.80395860762668</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>8.850167928647759</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>1.423098482208284</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.05863422818474</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>146.6558214528623</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>29.72080672052809</v>
       </c>
       <c r="W25" t="n">
-        <v>109.5859217075321</v>
+        <v>62.87703254100447</v>
       </c>
       <c r="X25" t="n">
         <v>2.924815585898187</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.629010905098</v>
+        <v>241.6290109050979</v>
       </c>
       <c r="C26" t="n">
-        <v>224.8976965926456</v>
+        <v>224.8976965926454</v>
       </c>
       <c r="D26" t="n">
-        <v>214.5173336683013</v>
+        <v>214.5173336683012</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0306366689904</v>
+        <v>241.0306366689903</v>
       </c>
       <c r="F26" t="n">
-        <v>265.2064643942438</v>
+        <v>265.2064643942437</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2408325045548</v>
+        <v>272.2408325045546</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6641398896844</v>
+        <v>190.6641398896843</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83771395695135</v>
+        <v>42.83771395695123</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.7791633739816</v>
+        <v>51.77916337398148</v>
       </c>
       <c r="T26" t="n">
-        <v>78.5728163438074</v>
+        <v>78.57281634380729</v>
       </c>
       <c r="U26" t="n">
-        <v>109.348241785209</v>
+        <v>109.3482417852089</v>
       </c>
       <c r="V26" t="n">
-        <v>186.4458224362223</v>
+        <v>186.4458224362222</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4427179142575</v>
+        <v>208.4427179142574</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7742000448723</v>
+        <v>228.7742000448722</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.5996726649387</v>
+        <v>244.5996726649386</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.28472652404776</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>28.93818484110392</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>4.025024488348379</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -2646,13 +2646,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7414897785979</v>
+        <v>44.96186444288404</v>
       </c>
       <c r="H27" t="n">
-        <v>93.76602257022692</v>
+        <v>107.7416892983143</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.80395860762668</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.64138145973286</v>
+        <v>21.64138145973275</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2470008911528</v>
+        <v>55.15960180485563</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386428286193</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.99629240438674</v>
+        <v>37.99629240438662</v>
       </c>
       <c r="C28" t="n">
-        <v>25.24915384490527</v>
+        <v>25.24915384490515</v>
       </c>
       <c r="D28" t="n">
-        <v>6.91816742822229</v>
+        <v>6.918167428222176</v>
       </c>
       <c r="E28" t="n">
-        <v>4.887225086902106</v>
+        <v>4.887225086901992</v>
       </c>
       <c r="F28" t="n">
-        <v>4.071622323507427</v>
+        <v>4.071622323507313</v>
       </c>
       <c r="G28" t="n">
-        <v>25.56600490188247</v>
+        <v>25.56600490188236</v>
       </c>
       <c r="H28" t="n">
-        <v>17.44677407529164</v>
+        <v>17.44677407529152</v>
       </c>
       <c r="I28" t="n">
-        <v>4.568422366565199</v>
+        <v>4.568422366565085</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.68401474004462</v>
+        <v>20.68401474004451</v>
       </c>
       <c r="S28" t="n">
-        <v>76.15394847806205</v>
+        <v>76.15394847806193</v>
       </c>
       <c r="T28" t="n">
-        <v>85.2359130624251</v>
+        <v>85.23591306242498</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9519884897529</v>
+        <v>143.9519884897528</v>
       </c>
       <c r="V28" t="n">
-        <v>110.8489519806421</v>
+        <v>110.848951980642</v>
       </c>
       <c r="W28" t="n">
-        <v>144.0051778011185</v>
+        <v>144.0051778011184</v>
       </c>
       <c r="X28" t="n">
-        <v>84.05296084601218</v>
+        <v>84.05296084601207</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.66127478147115</v>
+        <v>76.66127478147104</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>224.8976965926455</v>
       </c>
       <c r="D29" t="n">
-        <v>214.5173336683012</v>
+        <v>214.5173336683013</v>
       </c>
       <c r="E29" t="n">
         <v>241.0306366689903</v>
@@ -2804,13 +2804,13 @@
         <v>265.2064643942437</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2408325045546</v>
+        <v>272.2408325045547</v>
       </c>
       <c r="H29" t="n">
         <v>190.6641398896843</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83771395695126</v>
+        <v>42.83771395695128</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.7791633739815</v>
+        <v>51.77916337398154</v>
       </c>
       <c r="T29" t="n">
-        <v>78.57281634380732</v>
+        <v>78.57281634380735</v>
       </c>
       <c r="U29" t="n">
-        <v>109.3482417852089</v>
+        <v>109.348241785209</v>
       </c>
       <c r="V29" t="n">
         <v>186.4458224362222</v>
       </c>
       <c r="W29" t="n">
-        <v>208.4427179142574</v>
+        <v>208.4427179142575</v>
       </c>
       <c r="X29" t="n">
-        <v>228.7742000448722</v>
+        <v>228.7742000448723</v>
       </c>
       <c r="Y29" t="n">
         <v>244.5996726649387</v>
@@ -2877,16 +2877,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.9460346208767</v>
       </c>
       <c r="F30" t="n">
-        <v>1.418832997252139</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>135.7414897785979</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>16.96206396260047</v>
       </c>
       <c r="I30" t="n">
         <v>76.80395860762668</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.20360100342833</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.64138145973277</v>
+        <v>21.6413814597328</v>
       </c>
       <c r="T30" t="n">
-        <v>197.2470008911528</v>
+        <v>55.15960180485568</v>
       </c>
       <c r="U30" t="n">
         <v>224.6386428286193</v>
       </c>
       <c r="V30" t="n">
-        <v>89.82133195335797</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>144.2200925676504</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.99629240438665</v>
+        <v>37.99629240438668</v>
       </c>
       <c r="C31" t="n">
-        <v>25.24915384490518</v>
+        <v>25.24915384490521</v>
       </c>
       <c r="D31" t="n">
-        <v>6.918167428222205</v>
+        <v>6.918167428222233</v>
       </c>
       <c r="E31" t="n">
-        <v>4.887225086902021</v>
+        <v>4.887225086902049</v>
       </c>
       <c r="F31" t="n">
-        <v>4.071622323507341</v>
+        <v>4.07162232350737</v>
       </c>
       <c r="G31" t="n">
-        <v>25.56600490188239</v>
+        <v>25.56600490188242</v>
       </c>
       <c r="H31" t="n">
-        <v>17.44677407529155</v>
+        <v>17.44677407529158</v>
       </c>
       <c r="I31" t="n">
-        <v>4.568422366565113</v>
+        <v>4.568422366565142</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.68401474004454</v>
+        <v>20.68401474004456</v>
       </c>
       <c r="S31" t="n">
-        <v>76.15394847806196</v>
+        <v>76.15394847806199</v>
       </c>
       <c r="T31" t="n">
-        <v>85.23591306242501</v>
+        <v>85.23591306242504</v>
       </c>
       <c r="U31" t="n">
         <v>143.9519884897528</v>
@@ -3013,10 +3013,10 @@
         <v>144.0051778011184</v>
       </c>
       <c r="X31" t="n">
-        <v>84.0529608460121</v>
+        <v>84.05296084601213</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.66127478147106</v>
+        <v>76.66127478147109</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>224.8976965926455</v>
       </c>
       <c r="D32" t="n">
-        <v>214.5173336683013</v>
+        <v>214.5173336683012</v>
       </c>
       <c r="E32" t="n">
         <v>241.0306366689903</v>
@@ -3041,13 +3041,13 @@
         <v>265.2064643942437</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2408325045547</v>
+        <v>272.2408325045546</v>
       </c>
       <c r="H32" t="n">
         <v>190.6641398896843</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83771395695129</v>
+        <v>42.83771395695126</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.77916337398153</v>
+        <v>51.7791633739815</v>
       </c>
       <c r="T32" t="n">
-        <v>78.57281634380735</v>
+        <v>78.57281634380732</v>
       </c>
       <c r="U32" t="n">
-        <v>109.348241785209</v>
+        <v>109.3482417852089</v>
       </c>
       <c r="V32" t="n">
         <v>186.4458224362222</v>
       </c>
       <c r="W32" t="n">
-        <v>208.4427179142575</v>
+        <v>208.4427179142574</v>
       </c>
       <c r="X32" t="n">
-        <v>228.7742000448723</v>
+        <v>228.7742000448722</v>
       </c>
       <c r="Y32" t="n">
         <v>244.5996726649387</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.2847265240477</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>4.025024488348436</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>13.9460346208767</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7416892983143</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7287805460299</v>
+        <v>21.64138145973277</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2470008911528</v>
+        <v>142.5797150673839</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386428286193</v>
@@ -3171,7 +3171,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>190.485962880391</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.99629240438668</v>
+        <v>37.99629240438665</v>
       </c>
       <c r="C34" t="n">
-        <v>25.24915384490521</v>
+        <v>25.24915384490518</v>
       </c>
       <c r="D34" t="n">
-        <v>6.918167428222233</v>
+        <v>6.918167428222205</v>
       </c>
       <c r="E34" t="n">
-        <v>4.887225086902049</v>
+        <v>4.887225086902021</v>
       </c>
       <c r="F34" t="n">
-        <v>4.07162232350737</v>
+        <v>4.071622323507341</v>
       </c>
       <c r="G34" t="n">
-        <v>25.56600490188242</v>
+        <v>25.56600490188239</v>
       </c>
       <c r="H34" t="n">
-        <v>17.44677407529158</v>
+        <v>17.44677407529155</v>
       </c>
       <c r="I34" t="n">
-        <v>4.568422366565142</v>
+        <v>4.568422366565113</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.68401474004456</v>
+        <v>20.68401474004454</v>
       </c>
       <c r="S34" t="n">
-        <v>76.15394847806199</v>
+        <v>76.15394847806196</v>
       </c>
       <c r="T34" t="n">
-        <v>85.23591306242504</v>
+        <v>85.23591306242501</v>
       </c>
       <c r="U34" t="n">
         <v>143.9519884897528</v>
@@ -3250,10 +3250,10 @@
         <v>144.0051778011184</v>
       </c>
       <c r="X34" t="n">
-        <v>84.05296084601213</v>
+        <v>84.0529608460121</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.66127478147109</v>
+        <v>76.66127478147106</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.5008656449839</v>
+        <v>160.500865644984</v>
       </c>
       <c r="C35" t="n">
-        <v>143.7695513325315</v>
+        <v>143.7695513325316</v>
       </c>
       <c r="D35" t="n">
         <v>133.3891884081873</v>
@@ -3275,10 +3275,10 @@
         <v>159.9024914088764</v>
       </c>
       <c r="F35" t="n">
-        <v>184.0783191341297</v>
+        <v>184.0783191341298</v>
       </c>
       <c r="G35" t="n">
-        <v>191.1126872444407</v>
+        <v>191.1126872444408</v>
       </c>
       <c r="H35" t="n">
         <v>109.5359946295704</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.22009652509499</v>
+        <v>28.22009652509502</v>
       </c>
       <c r="V35" t="n">
-        <v>105.3176771761082</v>
+        <v>105.3176771761083</v>
       </c>
       <c r="W35" t="n">
         <v>127.3145726541435</v>
@@ -3345,7 +3345,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>83.67699055420523</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.20360100342833</v>
+        <v>39.46303461853583</v>
       </c>
       <c r="S36" t="n">
         <v>163.7287805460299</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>224.6386428286193</v>
       </c>
       <c r="V36" t="n">
-        <v>8.69318669324403</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.6534039881795</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.06105169286747</v>
       </c>
       <c r="R37" t="n">
-        <v>49.55543427124261</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.107767802311067</v>
+        <v>4.107767802311096</v>
       </c>
       <c r="U37" t="n">
-        <v>62.82384322963884</v>
+        <v>62.82384322963887</v>
       </c>
       <c r="V37" t="n">
-        <v>29.72080672052806</v>
+        <v>29.72080672052809</v>
       </c>
       <c r="W37" t="n">
-        <v>62.87703254100444</v>
+        <v>62.87703254100447</v>
       </c>
       <c r="X37" t="n">
-        <v>2.924815585898159</v>
+        <v>2.924815585898187</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.5008656449839</v>
+        <v>160.500865644984</v>
       </c>
       <c r="C38" t="n">
-        <v>143.7695513325315</v>
+        <v>143.7695513325316</v>
       </c>
       <c r="D38" t="n">
         <v>133.3891884081873</v>
@@ -3512,10 +3512,10 @@
         <v>159.9024914088764</v>
       </c>
       <c r="F38" t="n">
-        <v>184.0783191341297</v>
+        <v>184.0783191341298</v>
       </c>
       <c r="G38" t="n">
-        <v>191.1126872444407</v>
+        <v>191.1126872444408</v>
       </c>
       <c r="H38" t="n">
         <v>109.5359946295704</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.22009652509499</v>
+        <v>28.22009652509502</v>
       </c>
       <c r="V38" t="n">
-        <v>105.3176771761082</v>
+        <v>105.3176771761083</v>
       </c>
       <c r="W38" t="n">
         <v>127.3145726541435</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.7414897785979</v>
       </c>
       <c r="H39" t="n">
-        <v>101.0670377394598</v>
+        <v>107.7416892983143</v>
       </c>
       <c r="I39" t="n">
         <v>76.80395860762668</v>
@@ -3630,22 +3630,22 @@
         <v>77.20360100342833</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7287805460299</v>
+        <v>142.0987860143439</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.423098482208255</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V39" t="n">
-        <v>8.69318669324403</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.59045445452647</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.14056953343247</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>59.98343169308806</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.107767802311067</v>
+        <v>4.107767802311096</v>
       </c>
       <c r="U40" t="n">
-        <v>62.82384322963884</v>
+        <v>62.82384322963887</v>
       </c>
       <c r="V40" t="n">
-        <v>29.72080672052806</v>
+        <v>29.72080672052809</v>
       </c>
       <c r="W40" t="n">
-        <v>62.87703254100444</v>
+        <v>62.87703254100447</v>
       </c>
       <c r="X40" t="n">
-        <v>49.63370475242592</v>
+        <v>2.924815585898187</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>146.3248802488382</v>
       </c>
       <c r="D41" t="n">
-        <v>135.9445173244939</v>
+        <v>135.944517324494</v>
       </c>
       <c r="E41" t="n">
         <v>162.457820325183</v>
@@ -3755,7 +3755,7 @@
         <v>193.6680161607474</v>
       </c>
       <c r="H41" t="n">
-        <v>112.091323545877</v>
+        <v>112.0913235458771</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77542544140165</v>
+        <v>30.77542544140167</v>
       </c>
       <c r="V41" t="n">
         <v>107.8730060924149</v>
       </c>
       <c r="W41" t="n">
-        <v>129.8699015704501</v>
+        <v>129.8699015704502</v>
       </c>
       <c r="X41" t="n">
-        <v>150.2013837010649</v>
+        <v>150.201383701065</v>
       </c>
       <c r="Y41" t="n">
         <v>166.0268563211314</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>126.0977496759313</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7416892983143</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.80395860762668</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6386428286193</v>
+        <v>12.84231562349466</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,10 +3882,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.9378110995137</v>
       </c>
       <c r="T43" t="n">
-        <v>6.663096718617717</v>
+        <v>6.663096718617745</v>
       </c>
       <c r="U43" t="n">
-        <v>248.3169832454593</v>
+        <v>65.37917214594552</v>
       </c>
       <c r="V43" t="n">
-        <v>32.27613563683471</v>
+        <v>32.27613563683474</v>
       </c>
       <c r="W43" t="n">
-        <v>65.43236145731109</v>
+        <v>65.43236145731112</v>
       </c>
       <c r="X43" t="n">
-        <v>5.480144502204809</v>
+        <v>5.480144502204837</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>149.2209901260368</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7416892983143</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.80395860762668</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6386428286193</v>
+        <v>156.3485477070439</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>29.32913131989557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>884.1274214023567</v>
+        <v>1057.615383311578</v>
       </c>
       <c r="C11" t="n">
-        <v>884.1274214023567</v>
+        <v>810.3440059431781</v>
       </c>
       <c r="D11" t="n">
-        <v>680.3785712661597</v>
+        <v>573.5578436498732</v>
       </c>
       <c r="E11" t="n">
-        <v>680.3785712661597</v>
+        <v>309.9905672144582</v>
       </c>
       <c r="F11" t="n">
-        <v>392.3912668254383</v>
+        <v>309.9905672144582</v>
       </c>
       <c r="G11" t="n">
-        <v>97.29854005106949</v>
+        <v>309.9905672144582</v>
       </c>
       <c r="H11" t="n">
-        <v>97.29854005106949</v>
+        <v>97.29854005106958</v>
       </c>
       <c r="I11" t="n">
         <v>33.92613504195668</v>
       </c>
       <c r="J11" t="n">
-        <v>77.51546089597895</v>
+        <v>68.92736446938039</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1211537156918</v>
+        <v>256.5330572890933</v>
       </c>
       <c r="L11" t="n">
-        <v>549.8316830118331</v>
+        <v>541.2435865852347</v>
       </c>
       <c r="M11" t="n">
-        <v>881.8392985578071</v>
+        <v>873.2512021312086</v>
       </c>
       <c r="N11" t="n">
-        <v>1203.701969434321</v>
+        <v>1195.113873007722</v>
       </c>
       <c r="O11" t="n">
-        <v>1461.499411229422</v>
+        <v>1452.911314802823</v>
       </c>
       <c r="P11" t="n">
-        <v>1644.584770278926</v>
+        <v>1635.996673852328</v>
       </c>
       <c r="Q11" t="n">
         <v>1696.306752097834</v>
@@ -5066,25 +5066,25 @@
         <v>1696.306752097834</v>
       </c>
       <c r="S11" t="n">
-        <v>1623.902580000812</v>
+        <v>1696.306752097834</v>
       </c>
       <c r="T11" t="n">
-        <v>1623.902580000812</v>
+        <v>1596.838284071695</v>
       </c>
       <c r="U11" t="n">
-        <v>1623.902580000812</v>
+        <v>1596.838284071695</v>
       </c>
       <c r="V11" t="n">
-        <v>1415.471479558092</v>
+        <v>1388.407183628975</v>
       </c>
       <c r="W11" t="n">
-        <v>1415.471479558092</v>
+        <v>1388.407183628975</v>
       </c>
       <c r="X11" t="n">
-        <v>1415.471479558092</v>
+        <v>1137.22014620782</v>
       </c>
       <c r="Y11" t="n">
-        <v>1148.299116258083</v>
+        <v>1057.615383311578</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>610.0933216324904</v>
+        <v>610.0933216324908</v>
       </c>
       <c r="C12" t="n">
-        <v>437.3402065543076</v>
+        <v>560.7608450232237</v>
       </c>
       <c r="D12" t="n">
-        <v>413.1725383821674</v>
+        <v>413.1725383821676</v>
       </c>
       <c r="E12" t="n">
-        <v>378.983647853938</v>
+        <v>255.5630093850223</v>
       </c>
       <c r="F12" t="n">
-        <v>234.0278578705549</v>
+        <v>234.027857870555</v>
       </c>
       <c r="G12" t="n">
         <v>220.3358804014931</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5058912112766</v>
+        <v>111.5058912112765</v>
       </c>
       <c r="I12" t="n">
         <v>33.92613504195668</v>
       </c>
       <c r="J12" t="n">
-        <v>33.92613504195668</v>
+        <v>67.66968408571682</v>
       </c>
       <c r="K12" t="n">
-        <v>33.92613504195668</v>
+        <v>251.9483972272011</v>
       </c>
       <c r="L12" t="n">
-        <v>160.6615952201309</v>
+        <v>251.9483972272011</v>
       </c>
       <c r="M12" t="n">
-        <v>573.6243681636259</v>
+        <v>664.9111701706962</v>
       </c>
       <c r="N12" t="n">
-        <v>993.4602893078398</v>
+        <v>993.4602893078393</v>
       </c>
       <c r="O12" t="n">
-        <v>1327.698079748305</v>
+        <v>1327.698079748304</v>
       </c>
       <c r="P12" t="n">
         <v>1579.526832422212</v>
@@ -5142,28 +5142,28 @@
         <v>1696.306752097834</v>
       </c>
       <c r="R12" t="n">
-        <v>1696.306752097834</v>
+        <v>1618.323316740835</v>
       </c>
       <c r="S12" t="n">
-        <v>1530.924145485682</v>
+        <v>1452.940710128684</v>
       </c>
       <c r="T12" t="n">
-        <v>1455.10538911505</v>
+        <v>1285.961469950219</v>
       </c>
       <c r="U12" t="n">
-        <v>1351.618307555058</v>
+        <v>1059.05374992131</v>
       </c>
       <c r="V12" t="n">
-        <v>1195.064421853658</v>
+        <v>948.2231449158268</v>
       </c>
       <c r="W12" t="n">
-        <v>1065.970568655907</v>
+        <v>819.1292917180758</v>
       </c>
       <c r="X12" t="n">
-        <v>859.4436700614845</v>
+        <v>736.0230315925692</v>
       </c>
       <c r="Y12" t="n">
-        <v>777.1358727540509</v>
+        <v>653.7152342851355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.2434472053593</v>
+        <v>264.2434472053601</v>
       </c>
       <c r="C13" t="n">
-        <v>218.6372645316466</v>
+        <v>218.6372645316472</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5472297535733</v>
+        <v>191.5472297535738</v>
       </c>
       <c r="E13" t="n">
-        <v>166.5086518859244</v>
+        <v>166.5086518859247</v>
       </c>
       <c r="F13" t="n">
-        <v>142.2939151934216</v>
+        <v>142.2939151934218</v>
       </c>
       <c r="G13" t="n">
-        <v>96.36768094700466</v>
+        <v>96.36768094700454</v>
       </c>
       <c r="H13" t="n">
-        <v>58.64268995977034</v>
+        <v>58.64268995977013</v>
       </c>
       <c r="I13" t="n">
         <v>33.92613504195668</v>
       </c>
       <c r="J13" t="n">
-        <v>83.47153896724299</v>
+        <v>83.47153896724222</v>
       </c>
       <c r="K13" t="n">
-        <v>216.975433130591</v>
+        <v>216.9754331305901</v>
       </c>
       <c r="L13" t="n">
-        <v>409.789636683386</v>
+        <v>409.7896366833851</v>
       </c>
       <c r="M13" t="n">
-        <v>617.1024709467714</v>
+        <v>617.1024709467706</v>
       </c>
       <c r="N13" t="n">
-        <v>827.5033983254926</v>
+        <v>827.5033983254917</v>
       </c>
       <c r="O13" t="n">
-        <v>1015.74032333249</v>
+        <v>1015.740323332489</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.045532982325</v>
+        <v>1171.045532982324</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.626503369552</v>
+        <v>1232.626503369551</v>
       </c>
       <c r="R13" t="n">
-        <v>1191.631572316911</v>
+        <v>1191.63157231691</v>
       </c>
       <c r="S13" t="n">
-        <v>1094.606405165262</v>
+        <v>1094.606405165261</v>
       </c>
       <c r="T13" t="n">
-        <v>988.4075364132467</v>
+        <v>988.4075364132451</v>
       </c>
       <c r="U13" t="n">
-        <v>822.8995005629204</v>
+        <v>822.8995005629185</v>
       </c>
       <c r="V13" t="n">
-        <v>690.8288753278573</v>
+        <v>690.8288753278554</v>
       </c>
       <c r="W13" t="n">
-        <v>525.2671129003938</v>
+        <v>525.2671129003918</v>
       </c>
       <c r="X13" t="n">
-        <v>420.2631453770782</v>
+        <v>420.263145377076</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.725527413905</v>
+        <v>322.7255274139027</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>871.29866116876</v>
+        <v>1057.79065058559</v>
       </c>
       <c r="C14" t="n">
-        <v>871.29866116876</v>
+        <v>810.5192732171904</v>
       </c>
       <c r="D14" t="n">
-        <v>871.29866116876</v>
+        <v>573.7331109238856</v>
       </c>
       <c r="E14" t="n">
-        <v>871.29866116876</v>
+        <v>310.1658344884705</v>
       </c>
       <c r="F14" t="n">
-        <v>583.3113567280385</v>
+        <v>310.1658344884705</v>
       </c>
       <c r="G14" t="n">
-        <v>288.2186299536696</v>
+        <v>310.1658344884705</v>
       </c>
       <c r="H14" t="n">
         <v>97.47380732508179</v>
@@ -5276,25 +5276,25 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J14" t="n">
-        <v>77.69072816999113</v>
+        <v>77.69072816999125</v>
       </c>
       <c r="K14" t="n">
-        <v>265.2964209897039</v>
+        <v>265.2964209897041</v>
       </c>
       <c r="L14" t="n">
-        <v>550.0069502858451</v>
+        <v>550.0069502858454</v>
       </c>
       <c r="M14" t="n">
-        <v>882.0145658318189</v>
+        <v>882.0145658318194</v>
       </c>
       <c r="N14" t="n">
-        <v>1203.877236708332</v>
+        <v>1203.877236708333</v>
       </c>
       <c r="O14" t="n">
         <v>1461.674678503434</v>
       </c>
       <c r="P14" t="n">
-        <v>1644.760037552938</v>
+        <v>1644.760037552939</v>
       </c>
       <c r="Q14" t="n">
         <v>1705.070115798444</v>
@@ -5303,25 +5303,25 @@
         <v>1705.070115798444</v>
       </c>
       <c r="S14" t="n">
-        <v>1632.665943701421</v>
+        <v>1632.665943701422</v>
       </c>
       <c r="T14" t="n">
-        <v>1533.197475675282</v>
+        <v>1555.613200669769</v>
       </c>
       <c r="U14" t="n">
-        <v>1402.642719324495</v>
+        <v>1555.613200669769</v>
       </c>
       <c r="V14" t="n">
-        <v>1402.642719324495</v>
+        <v>1555.613200669769</v>
       </c>
       <c r="W14" t="n">
-        <v>1402.642719324495</v>
+        <v>1324.9630138856</v>
       </c>
       <c r="X14" t="n">
-        <v>1402.642719324495</v>
+        <v>1324.9630138856</v>
       </c>
       <c r="Y14" t="n">
-        <v>1135.470356024485</v>
+        <v>1057.79065058559</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624.8592381852022</v>
+        <v>710.0171691409339</v>
       </c>
       <c r="C15" t="n">
-        <v>452.1061231070194</v>
+        <v>660.6846925316669</v>
       </c>
       <c r="D15" t="n">
-        <v>304.5178164659633</v>
+        <v>636.5170243595265</v>
       </c>
       <c r="E15" t="n">
-        <v>270.3289259377338</v>
+        <v>502.5795535968662</v>
       </c>
       <c r="F15" t="n">
-        <v>248.7937744232665</v>
+        <v>357.623763613483</v>
       </c>
       <c r="G15" t="n">
-        <v>111.6811584852888</v>
+        <v>220.5111476755053</v>
       </c>
       <c r="H15" t="n">
         <v>111.6811584852888</v>
@@ -5355,22 +5355,22 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J15" t="n">
-        <v>34.10140231596888</v>
+        <v>67.84495135972901</v>
       </c>
       <c r="K15" t="n">
-        <v>218.3801154574531</v>
+        <v>252.1236645012132</v>
       </c>
       <c r="L15" t="n">
-        <v>527.0151936450703</v>
+        <v>560.7587426888306</v>
       </c>
       <c r="M15" t="n">
-        <v>939.9779665885653</v>
+        <v>973.7215156323257</v>
       </c>
       <c r="N15" t="n">
         <v>1002.22365300845</v>
       </c>
       <c r="O15" t="n">
-        <v>1336.461443448914</v>
+        <v>1336.461443448915</v>
       </c>
       <c r="P15" t="n">
         <v>1588.290196122822</v>
@@ -5379,28 +5379,28 @@
         <v>1705.070115798444</v>
       </c>
       <c r="R15" t="n">
-        <v>1665.34938795463</v>
+        <v>1627.086680441446</v>
       </c>
       <c r="S15" t="n">
-        <v>1623.387419811394</v>
+        <v>1585.12471229821</v>
       </c>
       <c r="T15" t="n">
-        <v>1424.148024971846</v>
+        <v>1509.305955927578</v>
       </c>
       <c r="U15" t="n">
-        <v>1320.660943411853</v>
+        <v>1282.398235898669</v>
       </c>
       <c r="V15" t="n">
-        <v>1209.83033840637</v>
+        <v>1048.14699242427</v>
       </c>
       <c r="W15" t="n">
-        <v>1080.736485208619</v>
+        <v>919.053139226519</v>
       </c>
       <c r="X15" t="n">
-        <v>874.2095866141964</v>
+        <v>835.9468791010122</v>
       </c>
       <c r="Y15" t="n">
-        <v>791.9017893067627</v>
+        <v>753.6390817935785</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4187144793726</v>
+        <v>264.4187144793722</v>
       </c>
       <c r="C16" t="n">
-        <v>218.8125318056598</v>
+        <v>218.8125318056593</v>
       </c>
       <c r="D16" t="n">
-        <v>191.7224970275863</v>
+        <v>191.7224970275859</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6839191599373</v>
+        <v>166.6839191599368</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4691824674344</v>
+        <v>142.4691824674339</v>
       </c>
       <c r="G16" t="n">
-        <v>96.5429482210171</v>
+        <v>96.54294822101679</v>
       </c>
       <c r="H16" t="n">
-        <v>58.81795723378266</v>
+        <v>58.81795723378236</v>
       </c>
       <c r="I16" t="n">
         <v>34.10140231596888</v>
       </c>
       <c r="J16" t="n">
-        <v>83.64680624125509</v>
+        <v>83.64680624125506</v>
       </c>
       <c r="K16" t="n">
         <v>217.150700404603</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9649039573978</v>
+        <v>409.964903957398</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2777382207831</v>
+        <v>617.2777382207832</v>
       </c>
       <c r="N16" t="n">
-        <v>827.678665599504</v>
+        <v>827.6786655995044</v>
       </c>
       <c r="O16" t="n">
         <v>1015.915590606502</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.220800256336</v>
+        <v>1171.220800256337</v>
       </c>
       <c r="Q16" t="n">
         <v>1232.801770643563</v>
@@ -5464,22 +5464,22 @@
         <v>1094.781672439273</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5828036872574</v>
+        <v>988.5828036872573</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0747678369308</v>
+        <v>823.0747678369307</v>
       </c>
       <c r="V16" t="n">
         <v>691.0041426018677</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4423801744042</v>
+        <v>525.4423801744041</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4384126510885</v>
+        <v>420.4384126510881</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.9007946879152</v>
+        <v>322.9007946879148</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.2006267177225</v>
+        <v>965.2006267177228</v>
       </c>
       <c r="C17" t="n">
-        <v>819.9788576949633</v>
+        <v>819.9788576949639</v>
       </c>
       <c r="D17" t="n">
-        <v>685.2423037472993</v>
+        <v>685.2423037473</v>
       </c>
       <c r="E17" t="n">
-        <v>523.7246356575251</v>
+        <v>523.7246356575257</v>
       </c>
       <c r="F17" t="n">
-        <v>337.7869395624446</v>
+        <v>337.786939562445</v>
       </c>
       <c r="G17" t="n">
         <v>144.7438211337168</v>
@@ -5513,7 +5513,7 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J17" t="n">
-        <v>77.69072816999113</v>
+        <v>77.69072816999116</v>
       </c>
       <c r="K17" t="n">
         <v>265.296420989704</v>
@@ -5552,13 +5552,13 @@
         <v>1570.183475696218</v>
       </c>
       <c r="W17" t="n">
-        <v>1441.582897257689</v>
+        <v>1441.58289725769</v>
       </c>
       <c r="X17" t="n">
         <v>1292.445468182176</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.322713227807</v>
+        <v>1127.322713227808</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>707.6847894951215</v>
+        <v>794.1207589537139</v>
       </c>
       <c r="C18" t="n">
-        <v>534.9316744169387</v>
+        <v>621.367643875531</v>
       </c>
       <c r="D18" t="n">
-        <v>387.3433677758825</v>
+        <v>473.779337234475</v>
       </c>
       <c r="E18" t="n">
-        <v>229.7338387787372</v>
+        <v>316.1698082373297</v>
       </c>
       <c r="F18" t="n">
-        <v>229.7338387787372</v>
+        <v>171.2140182539466</v>
       </c>
       <c r="G18" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="I18" t="n">
         <v>34.10140231596888</v>
       </c>
       <c r="J18" t="n">
-        <v>34.10140231596888</v>
+        <v>67.84495135972901</v>
       </c>
       <c r="K18" t="n">
-        <v>34.10140231596888</v>
+        <v>252.1236645012132</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2560264048396</v>
+        <v>560.7587426888306</v>
       </c>
       <c r="M18" t="n">
-        <v>580.2187993483346</v>
+        <v>973.7215156323257</v>
       </c>
       <c r="N18" t="n">
         <v>1002.22365300845</v>
       </c>
       <c r="O18" t="n">
-        <v>1336.461443448914</v>
+        <v>1336.461443448915</v>
       </c>
       <c r="P18" t="n">
         <v>1588.290196122822</v>
@@ -5616,28 +5616,28 @@
         <v>1705.070115798444</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.086680441445</v>
+        <v>1636.151605986908</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.086680441445</v>
+        <v>1636.151605986908</v>
       </c>
       <c r="T18" t="n">
-        <v>1627.086680441445</v>
+        <v>1636.151605986908</v>
       </c>
       <c r="U18" t="n">
-        <v>1400.178960412537</v>
+        <v>1634.714132772556</v>
       </c>
       <c r="V18" t="n">
-        <v>1165.927716938138</v>
+        <v>1625.933136112713</v>
       </c>
       <c r="W18" t="n">
-        <v>913.4132252714711</v>
+        <v>1373.418644446047</v>
       </c>
       <c r="X18" t="n">
-        <v>913.4132252714711</v>
+        <v>1166.891745851624</v>
       </c>
       <c r="Y18" t="n">
-        <v>707.6847894951215</v>
+        <v>961.1633100752744</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.89005301330542</v>
+        <v>181.7367774773876</v>
       </c>
       <c r="C19" t="n">
-        <v>34.10140231596888</v>
+        <v>181.7367774773876</v>
       </c>
       <c r="D19" t="n">
-        <v>34.10140231596888</v>
+        <v>181.7367774773876</v>
       </c>
       <c r="E19" t="n">
-        <v>34.10140231596888</v>
+        <v>181.7367774773876</v>
       </c>
       <c r="F19" t="n">
         <v>34.10140231596888</v>
@@ -5674,7 +5674,7 @@
         <v>34.10140231596888</v>
       </c>
       <c r="K19" t="n">
-        <v>46.6407287159324</v>
+        <v>46.64072871593241</v>
       </c>
       <c r="L19" t="n">
         <v>118.490364505343</v>
@@ -5692,31 +5692,31 @@
         <v>395.8879897507443</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.8879897507443</v>
+        <v>345.8319955373684</v>
       </c>
       <c r="R19" t="n">
-        <v>395.8879897507443</v>
+        <v>345.8319955373684</v>
       </c>
       <c r="S19" t="n">
-        <v>395.8879897507443</v>
+        <v>345.8319955373684</v>
       </c>
       <c r="T19" t="n">
-        <v>391.7387293443695</v>
+        <v>341.6827351309935</v>
       </c>
       <c r="U19" t="n">
-        <v>328.2803018396838</v>
+        <v>278.2243076263077</v>
       </c>
       <c r="V19" t="n">
-        <v>298.2592849502615</v>
+        <v>248.2032907368854</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7471308684388</v>
+        <v>184.6911366550626</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7927716907638</v>
+        <v>181.7367774773876</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.7927716907638</v>
+        <v>181.7367774773876</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>965.2006267177229</v>
+        <v>965.2006267177222</v>
       </c>
       <c r="C20" t="n">
-        <v>819.9788576949636</v>
+        <v>819.978857694963</v>
       </c>
       <c r="D20" t="n">
-        <v>685.2423037472996</v>
+        <v>685.242303747299</v>
       </c>
       <c r="E20" t="n">
-        <v>523.7246356575255</v>
+        <v>523.7246356575249</v>
       </c>
       <c r="F20" t="n">
-        <v>337.7869395624448</v>
+        <v>337.7869395624443</v>
       </c>
       <c r="G20" t="n">
         <v>144.7438211337168</v>
@@ -5750,16 +5750,16 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J20" t="n">
-        <v>77.69072816999119</v>
+        <v>77.69072816999096</v>
       </c>
       <c r="K20" t="n">
-        <v>265.296420989704</v>
+        <v>265.2964209897038</v>
       </c>
       <c r="L20" t="n">
-        <v>550.0069502858453</v>
+        <v>550.0069502858451</v>
       </c>
       <c r="M20" t="n">
-        <v>882.0145658318191</v>
+        <v>882.014565831819</v>
       </c>
       <c r="N20" t="n">
         <v>1203.877236708333</v>
@@ -5768,7 +5768,7 @@
         <v>1461.674678503434</v>
       </c>
       <c r="P20" t="n">
-        <v>1644.760037552938</v>
+        <v>1644.760037552939</v>
       </c>
       <c r="Q20" t="n">
         <v>1705.070115798444</v>
@@ -5783,19 +5783,19 @@
         <v>1705.070115798444</v>
       </c>
       <c r="U20" t="n">
-        <v>1676.564967793297</v>
+        <v>1676.564967793298</v>
       </c>
       <c r="V20" t="n">
         <v>1570.183475696218</v>
       </c>
       <c r="W20" t="n">
-        <v>1441.58289725769</v>
+        <v>1441.582897257689</v>
       </c>
       <c r="X20" t="n">
         <v>1292.445468182176</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.322713227808</v>
+        <v>1127.322713227807</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>822.9209753161051</v>
+        <v>334.115339779139</v>
       </c>
       <c r="C21" t="n">
-        <v>650.1678602379222</v>
+        <v>161.3622247009562</v>
       </c>
       <c r="D21" t="n">
-        <v>502.5795535968662</v>
+        <v>161.3622247009562</v>
       </c>
       <c r="E21" t="n">
-        <v>502.5795535968662</v>
+        <v>161.3622247009562</v>
       </c>
       <c r="F21" t="n">
-        <v>357.623763613483</v>
+        <v>161.3622247009562</v>
       </c>
       <c r="G21" t="n">
-        <v>220.5111476755053</v>
+        <v>161.3622247009562</v>
       </c>
       <c r="H21" t="n">
         <v>111.6811584852888</v>
@@ -5832,49 +5832,49 @@
         <v>67.84495135972901</v>
       </c>
       <c r="K21" t="n">
-        <v>67.84495135972901</v>
+        <v>252.1236645012132</v>
       </c>
       <c r="L21" t="n">
-        <v>376.4800295473464</v>
+        <v>560.7587426888306</v>
       </c>
       <c r="M21" t="n">
-        <v>696.9987190239571</v>
+        <v>973.7215156323257</v>
       </c>
       <c r="N21" t="n">
-        <v>1119.003572684072</v>
+        <v>1002.22365300845</v>
       </c>
       <c r="O21" t="n">
-        <v>1453.241363124537</v>
+        <v>1336.461443448915</v>
       </c>
       <c r="P21" t="n">
-        <v>1705.070115798444</v>
+        <v>1588.290196122822</v>
       </c>
       <c r="Q21" t="n">
         <v>1705.070115798444</v>
       </c>
       <c r="R21" t="n">
-        <v>1705.070115798444</v>
+        <v>1627.086680441446</v>
       </c>
       <c r="S21" t="n">
-        <v>1539.687509186293</v>
+        <v>1627.086680441446</v>
       </c>
       <c r="T21" t="n">
-        <v>1539.687509186293</v>
+        <v>1627.086680441446</v>
       </c>
       <c r="U21" t="n">
-        <v>1312.779789157384</v>
+        <v>1400.178960412537</v>
       </c>
       <c r="V21" t="n">
-        <v>1078.528545682985</v>
+        <v>1165.927716938138</v>
       </c>
       <c r="W21" t="n">
-        <v>1029.447873910528</v>
+        <v>913.4132252714716</v>
       </c>
       <c r="X21" t="n">
-        <v>822.9209753161051</v>
+        <v>706.8863266770491</v>
       </c>
       <c r="Y21" t="n">
-        <v>822.9209753161051</v>
+        <v>501.1578909006995</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="C22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="D22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="E22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="F22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="G22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="H22" t="n">
         <v>34.10140231596888</v>
@@ -5911,7 +5911,7 @@
         <v>34.10140231596888</v>
       </c>
       <c r="K22" t="n">
-        <v>46.6407287159324</v>
+        <v>46.64072871593241</v>
       </c>
       <c r="L22" t="n">
         <v>118.490364505343</v>
@@ -5929,31 +5929,31 @@
         <v>395.8879897507443</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.8879897507443</v>
+        <v>335.2986648082311</v>
       </c>
       <c r="R22" t="n">
-        <v>395.8879897507443</v>
+        <v>335.2986648082311</v>
       </c>
       <c r="S22" t="n">
-        <v>395.8879897507443</v>
+        <v>335.2986648082311</v>
       </c>
       <c r="T22" t="n">
-        <v>391.7387293443695</v>
+        <v>331.1494044018563</v>
       </c>
       <c r="U22" t="n">
-        <v>328.2803018396838</v>
+        <v>267.6909768971706</v>
       </c>
       <c r="V22" t="n">
-        <v>298.2592849502615</v>
+        <v>237.6699600077483</v>
       </c>
       <c r="W22" t="n">
-        <v>37.05576149364382</v>
+        <v>174.1578059259256</v>
       </c>
       <c r="X22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>965.2006267177234</v>
+        <v>965.2006267177229</v>
       </c>
       <c r="C23" t="n">
-        <v>819.9788576949641</v>
+        <v>819.9788576949637</v>
       </c>
       <c r="D23" t="n">
-        <v>685.2423037473002</v>
+        <v>685.2423037472997</v>
       </c>
       <c r="E23" t="n">
-        <v>523.7246356575258</v>
+        <v>523.7246356575256</v>
       </c>
       <c r="F23" t="n">
-        <v>337.7869395624452</v>
+        <v>337.786939562445</v>
       </c>
       <c r="G23" t="n">
         <v>144.7438211337168</v>
@@ -5987,16 +5987,16 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J23" t="n">
-        <v>77.69072816999119</v>
+        <v>77.69072816999142</v>
       </c>
       <c r="K23" t="n">
-        <v>265.2964209897038</v>
+        <v>265.2964209897042</v>
       </c>
       <c r="L23" t="n">
-        <v>550.0069502858451</v>
+        <v>550.0069502858455</v>
       </c>
       <c r="M23" t="n">
-        <v>882.014565831819</v>
+        <v>882.0145658318194</v>
       </c>
       <c r="N23" t="n">
         <v>1203.877236708333</v>
@@ -6005,7 +6005,7 @@
         <v>1461.674678503434</v>
       </c>
       <c r="P23" t="n">
-        <v>1644.760037552938</v>
+        <v>1644.760037552939</v>
       </c>
       <c r="Q23" t="n">
         <v>1705.070115798444</v>
@@ -6023,13 +6023,13 @@
         <v>1676.564967793297</v>
       </c>
       <c r="V23" t="n">
-        <v>1570.183475696219</v>
+        <v>1570.183475696218</v>
       </c>
       <c r="W23" t="n">
         <v>1441.58289725769</v>
       </c>
       <c r="X23" t="n">
-        <v>1292.445468182177</v>
+        <v>1292.445468182176</v>
       </c>
       <c r="Y23" t="n">
         <v>1127.322713227808</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>429.3900635468547</v>
+        <v>637.569021950694</v>
       </c>
       <c r="C24" t="n">
-        <v>256.6369484686719</v>
+        <v>464.8159068725112</v>
       </c>
       <c r="D24" t="n">
-        <v>256.6369484686719</v>
+        <v>317.2276002314551</v>
       </c>
       <c r="E24" t="n">
-        <v>256.6369484686719</v>
+        <v>159.6180712343098</v>
       </c>
       <c r="F24" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="G24" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="I24" t="n">
         <v>34.10140231596888</v>
       </c>
       <c r="J24" t="n">
-        <v>67.84495135972901</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="K24" t="n">
-        <v>67.84495135972901</v>
+        <v>218.3801154574531</v>
       </c>
       <c r="L24" t="n">
-        <v>376.4800295473464</v>
+        <v>527.0151936450704</v>
       </c>
       <c r="M24" t="n">
-        <v>789.4428024908414</v>
+        <v>939.9779665885656</v>
       </c>
       <c r="N24" t="n">
-        <v>1211.447656150956</v>
+        <v>1361.982820248681</v>
       </c>
       <c r="O24" t="n">
-        <v>1545.685446591421</v>
+        <v>1696.220610689145</v>
       </c>
       <c r="P24" t="n">
-        <v>1588.290196122822</v>
+        <v>1696.220610689145</v>
       </c>
       <c r="Q24" t="n">
         <v>1705.070115798444</v>
@@ -6093,25 +6093,25 @@
         <v>1705.070115798444</v>
       </c>
       <c r="S24" t="n">
-        <v>1696.130552234153</v>
+        <v>1705.070115798444</v>
       </c>
       <c r="T24" t="n">
-        <v>1496.891157394605</v>
+        <v>1705.070115798444</v>
       </c>
       <c r="U24" t="n">
-        <v>1495.453684180253</v>
+        <v>1703.632642584093</v>
       </c>
       <c r="V24" t="n">
-        <v>1261.202440705854</v>
+        <v>1469.381399109693</v>
       </c>
       <c r="W24" t="n">
-        <v>1008.687949039187</v>
+        <v>1216.866907443027</v>
       </c>
       <c r="X24" t="n">
-        <v>802.1610504447648</v>
+        <v>1010.340008848604</v>
       </c>
       <c r="Y24" t="n">
-        <v>596.4326146684152</v>
+        <v>804.6115730722545</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.6120755629581</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="C25" t="n">
-        <v>184.6120755629581</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="D25" t="n">
-        <v>34.10140231596888</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="E25" t="n">
-        <v>34.10140231596888</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="F25" t="n">
-        <v>34.10140231596888</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="G25" t="n">
-        <v>34.10140231596888</v>
+        <v>182.2385957026984</v>
       </c>
       <c r="H25" t="n">
-        <v>34.10140231596888</v>
+        <v>182.2385957026984</v>
       </c>
       <c r="I25" t="n">
         <v>34.10140231596888</v>
@@ -6184,13 +6184,13 @@
         <v>298.2592849502615</v>
       </c>
       <c r="W25" t="n">
-        <v>187.5664347406331</v>
+        <v>234.7471308684388</v>
       </c>
       <c r="X25" t="n">
-        <v>184.6120755629581</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.6120755629581</v>
+        <v>231.7927716907638</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.795764362749</v>
+        <v>1523.795764362748</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.626373865128</v>
+        <v>1296.626373865126</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.942198442601</v>
+        <v>1079.9421984426</v>
       </c>
       <c r="E26" t="n">
-        <v>836.4769088779642</v>
+        <v>836.4769088779635</v>
       </c>
       <c r="F26" t="n">
-        <v>568.591591308021</v>
+        <v>568.5915913080204</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6008514044303</v>
+        <v>293.6008514044298</v>
       </c>
       <c r="H26" t="n">
-        <v>101.0108111118197</v>
+        <v>101.0108111118196</v>
       </c>
       <c r="I26" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9962439229414</v>
+        <v>241.9962439229415</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2684618380883</v>
+        <v>570.2684618380885</v>
       </c>
       <c r="L26" t="n">
-        <v>995.6455162296636</v>
+        <v>995.6455162296638</v>
       </c>
       <c r="M26" t="n">
         <v>1468.319656871072</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.848852843019</v>
+        <v>1930.84885284302</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.312819733555</v>
+        <v>2329.312819733554</v>
       </c>
       <c r="P26" t="n">
         <v>2653.064703878493</v>
@@ -6248,28 +6248,28 @@
         <v>2854.041307219433</v>
       </c>
       <c r="R26" t="n">
-        <v>2887.019648674251</v>
+        <v>2887.01964867425</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.717463448007</v>
+        <v>2834.717463448006</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.350982292646</v>
+        <v>2755.350982292645</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.898212812637</v>
+        <v>2644.898212812635</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.569099240695</v>
+        <v>2456.569099240694</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.020899327304</v>
+        <v>2246.020899327303</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.935848776928</v>
+        <v>2014.935848776927</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.865472347697</v>
+        <v>1767.865472347696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>768.9502783828765</v>
+        <v>768.9502783828766</v>
       </c>
       <c r="C27" t="n">
-        <v>739.7197886443877</v>
+        <v>596.1971633046937</v>
       </c>
       <c r="D27" t="n">
-        <v>592.1314820033315</v>
+        <v>592.1314820033317</v>
       </c>
       <c r="E27" t="n">
-        <v>434.5219530061862</v>
+        <v>434.5219530061864</v>
       </c>
       <c r="F27" t="n">
-        <v>289.566163022803</v>
+        <v>289.5661630228033</v>
       </c>
       <c r="G27" t="n">
-        <v>152.4535470848253</v>
+        <v>244.1501383330214</v>
       </c>
       <c r="H27" t="n">
-        <v>57.74039297348502</v>
+        <v>135.3201491428049</v>
       </c>
       <c r="I27" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J27" t="n">
-        <v>91.48394201724514</v>
+        <v>91.48394201724511</v>
       </c>
       <c r="K27" t="n">
         <v>275.7626551587293</v>
@@ -6333,22 +6333,22 @@
         <v>2117.638388545038</v>
       </c>
       <c r="T27" t="n">
-        <v>1918.398993705489</v>
+        <v>2061.921619045183</v>
       </c>
       <c r="U27" t="n">
-        <v>1691.491273676581</v>
+        <v>1835.013899016275</v>
       </c>
       <c r="V27" t="n">
-        <v>1457.240030202182</v>
+        <v>1600.762655541876</v>
       </c>
       <c r="W27" t="n">
-        <v>1204.725538535515</v>
+        <v>1348.248163875209</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1986399410924</v>
+        <v>1141.721265280787</v>
       </c>
       <c r="Y27" t="n">
-        <v>792.4702041647429</v>
+        <v>935.9928295044371</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.343797041441</v>
+        <v>147.3437970414402</v>
       </c>
       <c r="C28" t="n">
-        <v>121.8396012385064</v>
+        <v>121.8396012385057</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8515533312111</v>
+        <v>114.8515533312105</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9149623343403</v>
+        <v>109.9149623343398</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8022125126156</v>
+        <v>105.8022125126153</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97796513697676</v>
+        <v>79.97796513697652</v>
       </c>
       <c r="H28" t="n">
-        <v>62.35496102052057</v>
+        <v>62.35496102052043</v>
       </c>
       <c r="I28" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J28" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="K28" t="n">
-        <v>70.27971937344853</v>
+        <v>70.27971937344851</v>
       </c>
       <c r="L28" t="n">
-        <v>142.1293551628591</v>
+        <v>235.4117708369222</v>
       </c>
       <c r="M28" t="n">
-        <v>369.1441467582941</v>
+        <v>462.4265624323574</v>
       </c>
       <c r="N28" t="n">
-        <v>599.247031469065</v>
+        <v>551.8629220476942</v>
       </c>
       <c r="O28" t="n">
-        <v>807.1859138081122</v>
+        <v>759.8018043867415</v>
       </c>
       <c r="P28" t="n">
-        <v>853.5260436493511</v>
+        <v>934.8089713686262</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.808971368628</v>
+        <v>934.8089713686262</v>
       </c>
       <c r="R28" t="n">
-        <v>913.9160271867647</v>
+        <v>913.916027186763</v>
       </c>
       <c r="S28" t="n">
-        <v>836.992846905894</v>
+        <v>836.9928469058924</v>
       </c>
       <c r="T28" t="n">
-        <v>750.8959650246566</v>
+        <v>750.8959650246551</v>
       </c>
       <c r="U28" t="n">
-        <v>605.4899160451082</v>
+        <v>605.4899160451068</v>
       </c>
       <c r="V28" t="n">
-        <v>493.5212776808233</v>
+        <v>493.521277680822</v>
       </c>
       <c r="W28" t="n">
-        <v>348.061502124138</v>
+        <v>348.0615021241368</v>
       </c>
       <c r="X28" t="n">
-        <v>263.1595214716004</v>
+        <v>263.1595214715994</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.7238903792054</v>
+        <v>185.7238903792044</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1079.942198442601</v>
       </c>
       <c r="E29" t="n">
-        <v>836.4769088779642</v>
+        <v>836.4769088779639</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5915913080212</v>
+        <v>568.5915913080207</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6008514044306</v>
+        <v>293.6008514044302</v>
       </c>
       <c r="H29" t="n">
-        <v>101.0108111118202</v>
+        <v>101.0108111118196</v>
       </c>
       <c r="I29" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9962439229415</v>
+        <v>241.9962439229416</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2684618380887</v>
+        <v>570.2684618380886</v>
       </c>
       <c r="L29" t="n">
         <v>995.6455162296641</v>
@@ -6479,31 +6479,31 @@
         <v>2329.312819733555</v>
       </c>
       <c r="P29" t="n">
-        <v>2653.064703878494</v>
+        <v>2653.064703878493</v>
       </c>
       <c r="Q29" t="n">
         <v>2854.041307219433</v>
       </c>
       <c r="R29" t="n">
-        <v>2887.019648674251</v>
+        <v>2887.01964867425</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.717463448007</v>
+        <v>2834.717463448006</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.350982292646</v>
+        <v>2755.350982292645</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.898212812637</v>
+        <v>2644.898212812636</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.569099240696</v>
+        <v>2456.569099240694</v>
       </c>
       <c r="W29" t="n">
-        <v>2246.020899327305</v>
+        <v>2246.020899327303</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.935848776928</v>
+        <v>2014.935848776927</v>
       </c>
       <c r="Y29" t="n">
         <v>1767.865472347696</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>751.816880440856</v>
+        <v>768.9502783828766</v>
       </c>
       <c r="C30" t="n">
-        <v>579.0637653626732</v>
+        <v>596.1971633046937</v>
       </c>
       <c r="D30" t="n">
-        <v>431.475458721617</v>
+        <v>448.6088566636376</v>
       </c>
       <c r="E30" t="n">
-        <v>273.8659297244716</v>
+        <v>434.5219530061864</v>
       </c>
       <c r="F30" t="n">
-        <v>272.4327650807826</v>
+        <v>289.5661630228033</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3201491428049</v>
+        <v>152.4535470848256</v>
       </c>
       <c r="H30" t="n">
         <v>135.3201491428049</v>
       </c>
       <c r="I30" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J30" t="n">
-        <v>91.48394201724514</v>
+        <v>91.48394201724511</v>
       </c>
       <c r="K30" t="n">
         <v>275.7626551587293</v>
@@ -6564,28 +6564,28 @@
         <v>2139.498369817495</v>
       </c>
       <c r="R30" t="n">
-        <v>2061.514934460497</v>
+        <v>2139.498369817495</v>
       </c>
       <c r="S30" t="n">
-        <v>2039.65495318804</v>
+        <v>2117.638388545038</v>
       </c>
       <c r="T30" t="n">
-        <v>1840.415558348491</v>
+        <v>2061.921619045183</v>
       </c>
       <c r="U30" t="n">
-        <v>1613.507838319583</v>
+        <v>1835.013899016275</v>
       </c>
       <c r="V30" t="n">
-        <v>1522.779220184878</v>
+        <v>1600.762655541876</v>
       </c>
       <c r="W30" t="n">
-        <v>1270.264728518211</v>
+        <v>1348.248163875209</v>
       </c>
       <c r="X30" t="n">
-        <v>1124.587867338766</v>
+        <v>1141.721265280787</v>
       </c>
       <c r="Y30" t="n">
-        <v>918.8594315624165</v>
+        <v>935.9928295044371</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.3437970414404</v>
+        <v>147.3437970414406</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8396012385058</v>
+        <v>121.839601238506</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8515533312107</v>
+        <v>114.8515533312108</v>
       </c>
       <c r="E31" t="n">
-        <v>109.91496233434</v>
+        <v>109.9149623343401</v>
       </c>
       <c r="F31" t="n">
         <v>105.8022125126154</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97796513697659</v>
+        <v>79.97796513697664</v>
       </c>
       <c r="H31" t="n">
-        <v>62.35496102052048</v>
+        <v>62.35496102052049</v>
       </c>
       <c r="I31" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9877542308211</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="K31" t="n">
-        <v>139.5270806307846</v>
+        <v>210.9462444688827</v>
       </c>
       <c r="L31" t="n">
-        <v>352.0432415156293</v>
+        <v>282.7958802582932</v>
       </c>
       <c r="M31" t="n">
-        <v>438.3915080156303</v>
+        <v>369.1441467582941</v>
       </c>
       <c r="N31" t="n">
-        <v>668.4943927264012</v>
+        <v>470.5799943284184</v>
       </c>
       <c r="O31" t="n">
-        <v>735.7667499700144</v>
+        <v>678.5188766674657</v>
       </c>
       <c r="P31" t="n">
-        <v>910.7739169518991</v>
+        <v>853.5260436493503</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.8089713686269</v>
+        <v>934.8089713686272</v>
       </c>
       <c r="R31" t="n">
-        <v>913.9160271867637</v>
+        <v>913.916027186764</v>
       </c>
       <c r="S31" t="n">
-        <v>836.992846905893</v>
+        <v>836.9928469058933</v>
       </c>
       <c r="T31" t="n">
-        <v>750.8959650246555</v>
+        <v>750.8959650246559</v>
       </c>
       <c r="U31" t="n">
-        <v>605.4899160451073</v>
+        <v>605.4899160451075</v>
       </c>
       <c r="V31" t="n">
-        <v>493.5212776808224</v>
+        <v>493.5212776808227</v>
       </c>
       <c r="W31" t="n">
-        <v>348.0615021241372</v>
+        <v>348.0615021241374</v>
       </c>
       <c r="X31" t="n">
-        <v>263.1595214715997</v>
+        <v>263.1595214715999</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.7238903792047</v>
+        <v>185.7238903792049</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.795764362749</v>
+        <v>1523.795764362748</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.626373865127</v>
+        <v>1296.626373865126</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.942198442601</v>
+        <v>1079.9421984426</v>
       </c>
       <c r="E32" t="n">
-        <v>836.4769088779639</v>
+        <v>836.4769088779632</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5915913080207</v>
+        <v>568.59159130802</v>
       </c>
       <c r="G32" t="n">
-        <v>293.6008514044302</v>
+        <v>293.6008514044299</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0108111118197</v>
+        <v>101.0108111118196</v>
       </c>
       <c r="I32" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9962439229421</v>
+        <v>241.9962439229414</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2684618380891</v>
+        <v>570.2684618380885</v>
       </c>
       <c r="L32" t="n">
-        <v>995.6455162296645</v>
+        <v>995.6455162296638</v>
       </c>
       <c r="M32" t="n">
-        <v>1468.319656871073</v>
+        <v>1468.319656871072</v>
       </c>
       <c r="N32" t="n">
-        <v>1930.84885284302</v>
+        <v>1930.848852843019</v>
       </c>
       <c r="O32" t="n">
         <v>2329.312819733555</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.064703878494</v>
+        <v>2653.064703878493</v>
       </c>
       <c r="Q32" t="n">
-        <v>2854.041307219434</v>
+        <v>2854.041307219433</v>
       </c>
       <c r="R32" t="n">
-        <v>2887.019648674251</v>
+        <v>2887.01964867425</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.717463448007</v>
+        <v>2834.717463448006</v>
       </c>
       <c r="T32" t="n">
-        <v>2755.350982292647</v>
+        <v>2755.350982292645</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.898212812636</v>
+        <v>2644.898212812635</v>
       </c>
       <c r="V32" t="n">
         <v>2456.569099240694</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>639.5444881220585</v>
+        <v>680.6471336732524</v>
       </c>
       <c r="C33" t="n">
-        <v>466.7913730438757</v>
+        <v>507.8940185950696</v>
       </c>
       <c r="D33" t="n">
-        <v>462.7256917425136</v>
+        <v>360.3057119540134</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6387880850624</v>
+        <v>202.6961829568681</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6829981016792</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="G33" t="n">
-        <v>166.5703821637015</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="H33" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="I33" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J33" t="n">
-        <v>91.48394201724514</v>
+        <v>91.48394201724511</v>
       </c>
       <c r="K33" t="n">
         <v>275.7626551587293</v>
@@ -6804,25 +6804,25 @@
         <v>2139.498369817495</v>
       </c>
       <c r="S33" t="n">
-        <v>1974.115763205344</v>
+        <v>2117.638388545038</v>
       </c>
       <c r="T33" t="n">
-        <v>1774.876368365795</v>
+        <v>1973.618474335559</v>
       </c>
       <c r="U33" t="n">
-        <v>1547.968648336887</v>
+        <v>1746.710754306651</v>
       </c>
       <c r="V33" t="n">
-        <v>1313.717404862488</v>
+        <v>1512.459510832251</v>
       </c>
       <c r="W33" t="n">
-        <v>1061.202913195821</v>
+        <v>1259.945019165585</v>
       </c>
       <c r="X33" t="n">
-        <v>868.7928496802745</v>
+        <v>1053.418120571162</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.0644139039249</v>
+        <v>847.6896847948128</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.3437970414406</v>
+        <v>147.3437970414404</v>
       </c>
       <c r="C34" t="n">
-        <v>121.839601238506</v>
+        <v>121.8396012385058</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8515533312108</v>
+        <v>114.8515533312107</v>
       </c>
       <c r="E34" t="n">
-        <v>109.9149623343401</v>
+        <v>109.9149623343399</v>
       </c>
       <c r="F34" t="n">
-        <v>105.8022125126155</v>
+        <v>105.8022125126154</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97796513697665</v>
+        <v>79.97796513697658</v>
       </c>
       <c r="H34" t="n">
-        <v>62.35496102052051</v>
+        <v>62.35496102052046</v>
       </c>
       <c r="I34" t="n">
-        <v>57.74039297348502</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J34" t="n">
-        <v>126.987754230821</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="K34" t="n">
-        <v>280.1936057262187</v>
+        <v>70.27971937344851</v>
       </c>
       <c r="L34" t="n">
-        <v>352.0432415156293</v>
+        <v>142.1293551628591</v>
       </c>
       <c r="M34" t="n">
-        <v>438.3915080156302</v>
+        <v>240.4771096176467</v>
       </c>
       <c r="N34" t="n">
-        <v>668.4943927264011</v>
+        <v>470.5799943284176</v>
       </c>
       <c r="O34" t="n">
-        <v>759.8018043867427</v>
+        <v>678.5188766674651</v>
       </c>
       <c r="P34" t="n">
-        <v>934.8089713686272</v>
+        <v>853.5260436493497</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.8089713686272</v>
+        <v>934.8089713686268</v>
       </c>
       <c r="R34" t="n">
-        <v>913.916027186764</v>
+        <v>913.9160271867636</v>
       </c>
       <c r="S34" t="n">
-        <v>836.9928469058933</v>
+        <v>836.9928469058929</v>
       </c>
       <c r="T34" t="n">
-        <v>750.8959650246559</v>
+        <v>750.8959650246554</v>
       </c>
       <c r="U34" t="n">
-        <v>605.4899160451075</v>
+        <v>605.4899160451072</v>
       </c>
       <c r="V34" t="n">
-        <v>493.5212776808227</v>
+        <v>493.5212776808223</v>
       </c>
       <c r="W34" t="n">
-        <v>348.0615021241374</v>
+        <v>348.0615021241371</v>
       </c>
       <c r="X34" t="n">
-        <v>263.1595214715999</v>
+        <v>263.1595214715996</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.7238903792049</v>
+        <v>185.7238903792046</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.200626717723</v>
+        <v>965.2006267177231</v>
       </c>
       <c r="C35" t="n">
-        <v>819.9788576949641</v>
+        <v>819.9788576949639</v>
       </c>
       <c r="D35" t="n">
-        <v>685.2423037473002</v>
+        <v>685.2423037473</v>
       </c>
       <c r="E35" t="n">
-        <v>523.7246356575261</v>
+        <v>523.7246356575258</v>
       </c>
       <c r="F35" t="n">
-        <v>337.7869395624455</v>
+        <v>337.786939562445</v>
       </c>
       <c r="G35" t="n">
         <v>144.7438211337168</v>
@@ -6935,7 +6935,7 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J35" t="n">
-        <v>77.69072816999113</v>
+        <v>77.69072816999115</v>
       </c>
       <c r="K35" t="n">
         <v>265.296420989704</v>
@@ -6953,7 +6953,7 @@
         <v>1461.674678503434</v>
       </c>
       <c r="P35" t="n">
-        <v>1644.760037552938</v>
+        <v>1644.760037552939</v>
       </c>
       <c r="Q35" t="n">
         <v>1705.070115798444</v>
@@ -6968,10 +6968,10 @@
         <v>1705.070115798444</v>
       </c>
       <c r="U35" t="n">
-        <v>1676.564967793297</v>
+        <v>1676.564967793298</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.183475696218</v>
+        <v>1570.183475696219</v>
       </c>
       <c r="W35" t="n">
         <v>1441.58289725769</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>400.6920209183451</v>
+        <v>206.8545173941517</v>
       </c>
       <c r="C36" t="n">
-        <v>316.1698082373297</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="D36" t="n">
-        <v>316.1698082373297</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="E36" t="n">
-        <v>316.1698082373297</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="F36" t="n">
-        <v>171.2140182539466</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="G36" t="n">
         <v>34.10140231596888</v>
@@ -7014,22 +7014,22 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J36" t="n">
-        <v>67.844951359729</v>
+        <v>67.84495135972901</v>
       </c>
       <c r="K36" t="n">
         <v>252.1236645012132</v>
       </c>
       <c r="L36" t="n">
-        <v>501.4938168453046</v>
+        <v>560.7587426888306</v>
       </c>
       <c r="M36" t="n">
-        <v>914.4565897887996</v>
+        <v>973.7215156323257</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.461443448914</v>
+        <v>1002.22365300845</v>
       </c>
       <c r="O36" t="n">
-        <v>1336.461443448914</v>
+        <v>1336.461443448915</v>
       </c>
       <c r="P36" t="n">
         <v>1588.290196122822</v>
@@ -7038,28 +7038,28 @@
         <v>1705.070115798444</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.086680441445</v>
+        <v>1665.20846466861</v>
       </c>
       <c r="S36" t="n">
-        <v>1461.704073829294</v>
+        <v>1499.825858056459</v>
       </c>
       <c r="T36" t="n">
-        <v>1262.464678989746</v>
+        <v>1499.825858056459</v>
       </c>
       <c r="U36" t="n">
-        <v>1035.556958960837</v>
+        <v>1272.91813802755</v>
       </c>
       <c r="V36" t="n">
-        <v>1026.775962300995</v>
+        <v>1038.666894553151</v>
       </c>
       <c r="W36" t="n">
-        <v>774.261470634328</v>
+        <v>786.1524028864842</v>
       </c>
       <c r="X36" t="n">
-        <v>567.7345720399055</v>
+        <v>579.6255042920617</v>
       </c>
       <c r="Y36" t="n">
-        <v>567.7345720399055</v>
+        <v>373.8970685157121</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.7367774773876</v>
+        <v>203.4482750313018</v>
       </c>
       <c r="C37" t="n">
-        <v>181.7367774773876</v>
+        <v>203.4482750313018</v>
       </c>
       <c r="D37" t="n">
-        <v>181.7367774773876</v>
+        <v>203.4482750313018</v>
       </c>
       <c r="E37" t="n">
-        <v>181.7367774773876</v>
+        <v>203.4482750313018</v>
       </c>
       <c r="F37" t="n">
-        <v>34.10140231596888</v>
+        <v>203.4482750313018</v>
       </c>
       <c r="G37" t="n">
         <v>34.10140231596888</v>
@@ -7114,31 +7114,31 @@
         <v>395.8879897507443</v>
       </c>
       <c r="Q37" t="n">
-        <v>395.8879897507443</v>
+        <v>367.5434930912822</v>
       </c>
       <c r="R37" t="n">
-        <v>345.831995537368</v>
+        <v>367.5434930912822</v>
       </c>
       <c r="S37" t="n">
-        <v>345.831995537368</v>
+        <v>367.5434930912822</v>
       </c>
       <c r="T37" t="n">
-        <v>341.6827351309931</v>
+        <v>363.3942326849074</v>
       </c>
       <c r="U37" t="n">
-        <v>278.2243076263074</v>
+        <v>299.9358051802217</v>
       </c>
       <c r="V37" t="n">
-        <v>248.2032907368852</v>
+        <v>269.9147882907994</v>
       </c>
       <c r="W37" t="n">
-        <v>184.6911366550625</v>
+        <v>206.4026342089767</v>
       </c>
       <c r="X37" t="n">
-        <v>181.7367774773876</v>
+        <v>203.4482750313018</v>
       </c>
       <c r="Y37" t="n">
-        <v>181.7367774773876</v>
+        <v>203.4482750313018</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.2006267177233</v>
+        <v>965.2006267177226</v>
       </c>
       <c r="C38" t="n">
-        <v>819.9788576949641</v>
+        <v>819.9788576949637</v>
       </c>
       <c r="D38" t="n">
-        <v>685.2423037473002</v>
+        <v>685.2423037472997</v>
       </c>
       <c r="E38" t="n">
-        <v>523.7246356575261</v>
+        <v>523.7246356575256</v>
       </c>
       <c r="F38" t="n">
-        <v>337.7869395624455</v>
+        <v>337.786939562445</v>
       </c>
       <c r="G38" t="n">
         <v>144.7438211337168</v>
@@ -7172,16 +7172,16 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J38" t="n">
-        <v>77.69072816999113</v>
+        <v>77.69072816999096</v>
       </c>
       <c r="K38" t="n">
-        <v>265.296420989704</v>
+        <v>265.2964209897038</v>
       </c>
       <c r="L38" t="n">
         <v>550.0069502858451</v>
       </c>
       <c r="M38" t="n">
-        <v>882.014565831819</v>
+        <v>882.0145658318189</v>
       </c>
       <c r="N38" t="n">
         <v>1203.877236708332</v>
@@ -7211,7 +7211,7 @@
         <v>1570.183475696218</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.58289725769</v>
+        <v>1441.582897257689</v>
       </c>
       <c r="X38" t="n">
         <v>1292.445468182176</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>826.200125390523</v>
+        <v>357.623763613483</v>
       </c>
       <c r="C39" t="n">
-        <v>653.4470103123401</v>
+        <v>357.623763613483</v>
       </c>
       <c r="D39" t="n">
-        <v>653.4470103123401</v>
+        <v>357.623763613483</v>
       </c>
       <c r="E39" t="n">
-        <v>495.8374813151949</v>
+        <v>357.623763613483</v>
       </c>
       <c r="F39" t="n">
-        <v>350.8816913318117</v>
+        <v>357.623763613483</v>
       </c>
       <c r="G39" t="n">
-        <v>213.769075393834</v>
+        <v>220.5111476755053</v>
       </c>
       <c r="H39" t="n">
         <v>111.6811584852888</v>
@@ -7251,25 +7251,25 @@
         <v>34.10140231596888</v>
       </c>
       <c r="J39" t="n">
-        <v>67.844951359729</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="K39" t="n">
-        <v>252.1236645012132</v>
+        <v>34.10140231596888</v>
       </c>
       <c r="L39" t="n">
-        <v>560.7587426888306</v>
+        <v>342.7364805035862</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7215156323257</v>
+        <v>755.6992534470812</v>
       </c>
       <c r="N39" t="n">
-        <v>1002.22365300845</v>
+        <v>1177.704107107196</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.461443448914</v>
+        <v>1511.941897547661</v>
       </c>
       <c r="P39" t="n">
-        <v>1588.290196122822</v>
+        <v>1705.070115798444</v>
       </c>
       <c r="Q39" t="n">
         <v>1705.070115798444</v>
@@ -7278,25 +7278,25 @@
         <v>1627.086680441445</v>
       </c>
       <c r="S39" t="n">
-        <v>1461.704073829294</v>
+        <v>1483.552553154229</v>
       </c>
       <c r="T39" t="n">
-        <v>1461.704073829294</v>
+        <v>1483.552553154229</v>
       </c>
       <c r="U39" t="n">
-        <v>1460.266600614942</v>
+        <v>1256.644833125321</v>
       </c>
       <c r="V39" t="n">
-        <v>1451.4856039551</v>
+        <v>1022.393589650922</v>
       </c>
       <c r="W39" t="n">
-        <v>1198.971112288433</v>
+        <v>769.8790979842551</v>
       </c>
       <c r="X39" t="n">
-        <v>1198.971112288433</v>
+        <v>563.3521993898325</v>
       </c>
       <c r="Y39" t="n">
-        <v>993.2426765120834</v>
+        <v>357.623763613483</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.6120755629581</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="C40" t="n">
-        <v>184.6120755629581</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="D40" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="E40" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="F40" t="n">
-        <v>34.10140231596888</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="G40" t="n">
-        <v>34.10140231596888</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="H40" t="n">
-        <v>34.10140231596888</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="I40" t="n">
-        <v>34.10140231596888</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="J40" t="n">
         <v>34.10140231596888</v>
@@ -7351,31 +7351,31 @@
         <v>395.8879897507443</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.8879897507443</v>
+        <v>335.2986648082311</v>
       </c>
       <c r="R40" t="n">
-        <v>395.8879897507443</v>
+        <v>335.2986648082311</v>
       </c>
       <c r="S40" t="n">
-        <v>395.8879897507443</v>
+        <v>335.2986648082311</v>
       </c>
       <c r="T40" t="n">
-        <v>391.7387293443695</v>
+        <v>331.1494044018563</v>
       </c>
       <c r="U40" t="n">
-        <v>328.2803018396838</v>
+        <v>267.6909768971706</v>
       </c>
       <c r="V40" t="n">
-        <v>298.2592849502615</v>
+        <v>237.6699600077483</v>
       </c>
       <c r="W40" t="n">
-        <v>234.7471308684389</v>
+        <v>174.1578059259256</v>
       </c>
       <c r="X40" t="n">
-        <v>184.6120755629581</v>
+        <v>171.2034467482506</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.6120755629581</v>
+        <v>171.2034467482506</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.3195846313447</v>
+        <v>981.319584631345</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5166752890837</v>
+        <v>833.5166752890841</v>
       </c>
       <c r="D41" t="n">
-        <v>696.1989810219181</v>
+        <v>696.1989810219184</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1001726126424</v>
+        <v>532.1001726126426</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5813361980602</v>
+        <v>343.5813361980604</v>
       </c>
       <c r="G41" t="n">
-        <v>147.957077449831</v>
+        <v>147.9570774498311</v>
       </c>
       <c r="H41" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="I41" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="J41" t="n">
         <v>78.32284416660377</v>
@@ -7415,31 +7415,31 @@
         <v>265.9285369863166</v>
       </c>
       <c r="L41" t="n">
-        <v>581.6127501164763</v>
+        <v>550.6390662824579</v>
       </c>
       <c r="M41" t="n">
-        <v>913.6203656624501</v>
+        <v>882.6466818284318</v>
       </c>
       <c r="N41" t="n">
-        <v>1235.483036538964</v>
+        <v>1204.509352704945</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.280478334065</v>
+        <v>1462.306794500046</v>
       </c>
       <c r="P41" t="n">
-        <v>1676.365837383569</v>
+        <v>1645.392153549551</v>
       </c>
       <c r="Q41" t="n">
-        <v>1736.675915629075</v>
+        <v>1705.702231795057</v>
       </c>
       <c r="R41" t="n">
-        <v>1736.675915629075</v>
+        <v>1710.150199188948</v>
       </c>
       <c r="S41" t="n">
         <v>1736.675915629075</v>
       </c>
       <c r="T41" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629076</v>
       </c>
       <c r="U41" t="n">
         <v>1705.589627304427</v>
@@ -7448,13 +7448,13 @@
         <v>1596.626994887847</v>
       </c>
       <c r="W41" t="n">
-        <v>1465.445276129816</v>
+        <v>1465.445276129817</v>
       </c>
       <c r="X41" t="n">
-        <v>1313.726706734801</v>
+        <v>1313.726706734802</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.022811460931</v>
+        <v>1146.022811460932</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>531.0089946882783</v>
+        <v>657.6402590123489</v>
       </c>
       <c r="C42" t="n">
-        <v>358.2558796100956</v>
+        <v>484.8871439341661</v>
       </c>
       <c r="D42" t="n">
-        <v>358.2558796100956</v>
+        <v>337.29883729311</v>
       </c>
       <c r="E42" t="n">
-        <v>358.2558796100956</v>
+        <v>179.6893082959647</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2558796100956</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="G42" t="n">
-        <v>221.1432636721179</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="H42" t="n">
-        <v>112.3132744819014</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="I42" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="J42" t="n">
-        <v>68.47706735634162</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="K42" t="n">
-        <v>252.7557804978258</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="L42" t="n">
-        <v>561.3908586854432</v>
+        <v>307.8193104530122</v>
       </c>
       <c r="M42" t="n">
-        <v>974.3536316289383</v>
+        <v>720.7820833965072</v>
       </c>
       <c r="N42" t="n">
-        <v>1285.658205512988</v>
+        <v>1150.609372514703</v>
       </c>
       <c r="O42" t="n">
-        <v>1619.895995953453</v>
+        <v>1484.847162955168</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.895995953453</v>
+        <v>1736.675915629075</v>
       </c>
       <c r="Q42" t="n">
         <v>1736.675915629075</v>
@@ -7515,25 +7515,25 @@
         <v>1736.675915629075</v>
       </c>
       <c r="S42" t="n">
-        <v>1571.293309016924</v>
+        <v>1736.675915629075</v>
       </c>
       <c r="T42" t="n">
-        <v>1372.053914177375</v>
+        <v>1736.675915629075</v>
       </c>
       <c r="U42" t="n">
-        <v>1145.146194148467</v>
+        <v>1723.703879645748</v>
       </c>
       <c r="V42" t="n">
-        <v>910.8949506740676</v>
+        <v>1489.452636171348</v>
       </c>
       <c r="W42" t="n">
-        <v>658.3804590074009</v>
+        <v>1236.938144504682</v>
       </c>
       <c r="X42" t="n">
-        <v>658.3804590074009</v>
+        <v>1030.411245910259</v>
       </c>
       <c r="Y42" t="n">
-        <v>658.3804590074009</v>
+        <v>824.6828101339094</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="C43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="D43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="E43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="F43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="G43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="H43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="I43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="J43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="K43" t="n">
-        <v>47.27284471254502</v>
+        <v>47.27284471254503</v>
       </c>
       <c r="L43" t="n">
         <v>119.1224805019556</v>
       </c>
       <c r="M43" t="n">
-        <v>205.4707470019565</v>
+        <v>205.4707470019566</v>
       </c>
       <c r="N43" t="n">
         <v>294.9071066172933</v>
@@ -7585,34 +7585,34 @@
         <v>362.1794638609065</v>
       </c>
       <c r="P43" t="n">
-        <v>396.5201057473569</v>
+        <v>396.520105747357</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.5201057473569</v>
+        <v>396.520105747357</v>
       </c>
       <c r="R43" t="n">
-        <v>396.5201057473569</v>
+        <v>396.520105747357</v>
       </c>
       <c r="S43" t="n">
-        <v>396.5201057473569</v>
+        <v>211.7344379700704</v>
       </c>
       <c r="T43" t="n">
-        <v>389.7897050214804</v>
+        <v>205.0040372441939</v>
       </c>
       <c r="U43" t="n">
-        <v>138.9644694200064</v>
+        <v>138.9644694200065</v>
       </c>
       <c r="V43" t="n">
-        <v>106.3623122110824</v>
+        <v>106.3623122110825</v>
       </c>
       <c r="W43" t="n">
-        <v>40.26901780975808</v>
+        <v>40.26901780975811</v>
       </c>
       <c r="X43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.7335183125815</v>
+        <v>34.73351831258151</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>34.73351831258151</v>
       </c>
       <c r="I44" t="n">
-        <v>34.73351831258151</v>
+        <v>65.70720214660037</v>
       </c>
       <c r="J44" t="n">
-        <v>78.32284416660377</v>
+        <v>109.2965280006226</v>
       </c>
       <c r="K44" t="n">
-        <v>265.9285369863166</v>
+        <v>296.9022208203355</v>
       </c>
       <c r="L44" t="n">
-        <v>550.6390662824579</v>
+        <v>581.6127501164767</v>
       </c>
       <c r="M44" t="n">
-        <v>882.6466818284318</v>
+        <v>913.6203656624506</v>
       </c>
       <c r="N44" t="n">
-        <v>1204.509352704945</v>
+        <v>1235.483036538964</v>
       </c>
       <c r="O44" t="n">
-        <v>1462.306794500046</v>
+        <v>1493.280478334065</v>
       </c>
       <c r="P44" t="n">
         <v>1676.36583738357</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>666.5936814618235</v>
+        <v>512.6844690289659</v>
       </c>
       <c r="C45" t="n">
-        <v>515.8654086072409</v>
+        <v>339.931353950783</v>
       </c>
       <c r="D45" t="n">
-        <v>515.8654086072409</v>
+        <v>192.3430473097268</v>
       </c>
       <c r="E45" t="n">
-        <v>358.2558796100956</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2558796100956</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="G45" t="n">
-        <v>221.1432636721179</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="H45" t="n">
-        <v>112.3132744819014</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="I45" t="n">
         <v>34.73351831258151</v>
       </c>
       <c r="J45" t="n">
-        <v>68.47706735634162</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="K45" t="n">
-        <v>191.0393907773903</v>
+        <v>34.73351831258151</v>
       </c>
       <c r="L45" t="n">
-        <v>191.0393907773903</v>
+        <v>307.8193104530122</v>
       </c>
       <c r="M45" t="n">
-        <v>604.0021637208854</v>
+        <v>720.7820833965072</v>
       </c>
       <c r="N45" t="n">
-        <v>1033.829452839082</v>
+        <v>1150.609372514703</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.067243279546</v>
+        <v>1484.847162955168</v>
       </c>
       <c r="P45" t="n">
-        <v>1619.895995953454</v>
+        <v>1736.675915629075</v>
       </c>
       <c r="Q45" t="n">
         <v>1736.675915629075</v>
@@ -7758,19 +7758,19 @@
         <v>1736.675915629075</v>
       </c>
       <c r="U45" t="n">
-        <v>1509.768195600167</v>
+        <v>1578.748089662364</v>
       </c>
       <c r="V45" t="n">
-        <v>1275.516952125768</v>
+        <v>1344.496846187965</v>
       </c>
       <c r="W45" t="n">
-        <v>1245.891566954156</v>
+        <v>1091.982354521298</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.364668359734</v>
+        <v>885.4554559268759</v>
       </c>
       <c r="Y45" t="n">
-        <v>833.636232583384</v>
+        <v>679.7270201505263</v>
       </c>
     </row>
     <row r="46">
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>167.1856349036046</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8708,7 +8708,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.1327454109491</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,19 +8766,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05028378053011</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>88.90373220875429</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>201.9369712272712</v>
+        <v>73.92135488568097</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>478.8640697279569</v>
+        <v>386.6551788117237</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789568</v>
       </c>
       <c r="K14" t="n">
         <v>337.1112290740114</v>
@@ -8945,7 +8945,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863008</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05028378053012</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9015,7 +9015,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>117.6618124306542</v>
+        <v>83.57741945715897</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9182,7 +9182,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.8075902863004</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,19 +9240,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05028378053011</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.90373220875429</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>208.4209751774696</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>481.0549106531093</v>
+        <v>83.57741945715897</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789568</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9480,16 +9480,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>88.90373220875429</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>390.955404212238</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>481.0549106531095</v>
+        <v>83.57741945715897</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9498,7 +9498,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.5208644214225</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>175.860479778957</v>
       </c>
       <c r="K23" t="n">
         <v>337.1112290740114</v>
@@ -9714,10 +9714,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05028378053011</v>
       </c>
       <c r="K24" t="n">
-        <v>88.90373220875429</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,16 +9726,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0549106531094</v>
+        <v>481.0549106531095</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>119.863902473912</v>
+        <v>76.82880193714333</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>109.4597584712194</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10668,16 +10668,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>325.8103976574905</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0549106531093</v>
+        <v>83.57741945715932</v>
       </c>
       <c r="O36" t="n">
-        <v>72.00288230995535</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10899,10 +10899,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05028378053011</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90373220875429</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10911,16 +10911,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>83.57741945715887</v>
+        <v>481.0549106531093</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>271.9078102712674</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5208644214225</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,28 +11136,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05028378053011</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90373220875429</v>
       </c>
       <c r="L42" t="n">
-        <v>385.6739591155975</v>
+        <v>349.7655893709646</v>
       </c>
       <c r="M42" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>369.236446232842</v>
+        <v>488.9563606107673</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>76.82880193714333</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5208644214225</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,13 +11373,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05028378053011</v>
       </c>
       <c r="K45" t="n">
-        <v>212.7040588966823</v>
+        <v>88.90373220875429</v>
       </c>
       <c r="L45" t="n">
-        <v>73.92135488568104</v>
+        <v>349.7655893709646</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5208644214225</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5299779071684</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7986635947159</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.70693903553666</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9316036710607</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.1074313963142</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1417995066252</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5651068917547</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.68013037605203</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47378334587773</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2492087872793</v>
+        <v>129.2492087872795</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3436849163278</v>
+        <v>228.343684916328</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6751670469426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>185.6919243997297</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.5299779071684</v>
       </c>
       <c r="C14" t="n">
-        <v>244.798663594716</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4183006703718</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9316036710608</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.1074313963142</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.1417995066252</v>
       </c>
       <c r="H14" t="n">
-        <v>21.72773248945289</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.19156774454227</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2492087872795</v>
       </c>
       <c r="V14" t="n">
         <v>206.3467894382927</v>
       </c>
       <c r="W14" t="n">
-        <v>228.343684916328</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>248.6751670469428</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.358555963988275e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60911.72833168054</v>
+        <v>60911.72833168056</v>
       </c>
       <c r="C2" t="n">
         <v>60911.72833168054</v>
       </c>
       <c r="D2" t="n">
-        <v>60911.72833168055</v>
+        <v>60911.72833168052</v>
       </c>
       <c r="E2" t="n">
-        <v>52365.10302710196</v>
+        <v>52365.10302710193</v>
       </c>
       <c r="F2" t="n">
-        <v>52415.86125341208</v>
+        <v>52415.86125341205</v>
       </c>
       <c r="G2" t="n">
-        <v>61043.95564612023</v>
+        <v>61043.95564612024</v>
       </c>
       <c r="H2" t="n">
-        <v>61043.95564612027</v>
+        <v>61043.95564612024</v>
       </c>
       <c r="I2" t="n">
-        <v>61043.95564612024</v>
+        <v>61043.95564612025</v>
       </c>
       <c r="J2" t="n">
-        <v>61043.95564612016</v>
+        <v>61043.95564612015</v>
       </c>
       <c r="K2" t="n">
         <v>61043.95564612016</v>
       </c>
       <c r="L2" t="n">
-        <v>61043.95564612016</v>
+        <v>61043.95564612014</v>
       </c>
       <c r="M2" t="n">
+        <v>61043.95564612025</v>
+      </c>
+      <c r="N2" t="n">
         <v>61043.95564612024</v>
       </c>
-      <c r="N2" t="n">
-        <v>61043.95564612025</v>
-      </c>
       <c r="O2" t="n">
-        <v>61043.95564612021</v>
+        <v>61043.95564612019</v>
       </c>
       <c r="P2" t="n">
-        <v>61043.9556461202</v>
+        <v>61043.95564612019</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329595.0527053681</v>
+        <v>329595.0527053682</v>
       </c>
       <c r="F3" t="n">
-        <v>627.7328869201502</v>
+        <v>627.7328869202511</v>
       </c>
       <c r="G3" t="n">
-        <v>80823.28980974756</v>
+        <v>80823.28980974751</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110159.1303542296</v>
+        <v>110159.1303542295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>80823.28980974753</v>
       </c>
       <c r="M3" t="n">
-        <v>96947.48532284268</v>
+        <v>96947.48532284277</v>
       </c>
       <c r="N3" t="n">
         <v>536.5960952748229</v>
       </c>
       <c r="O3" t="n">
-        <v>32703.85816000518</v>
+        <v>32703.85816000521</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>427315.5897743298</v>
       </c>
       <c r="E4" t="n">
-        <v>295202.9787435051</v>
+        <v>295202.9787435048</v>
       </c>
       <c r="F4" t="n">
         <v>295422.1406006502</v>
@@ -26442,10 +26442,10 @@
         <v>359403.0198487454</v>
       </c>
       <c r="K4" t="n">
+        <v>359403.0198487455</v>
+      </c>
+      <c r="L4" t="n">
         <v>359403.0198487454</v>
-      </c>
-      <c r="L4" t="n">
-        <v>359403.0198487455</v>
       </c>
       <c r="M4" t="n">
         <v>360823.0243176459</v>
@@ -26454,7 +26454,7 @@
         <v>360823.0243176459</v>
       </c>
       <c r="O4" t="n">
-        <v>360645.5727760342</v>
+        <v>360645.5727760343</v>
       </c>
       <c r="P4" t="n">
         <v>360645.5727760343</v>
@@ -26479,7 +26479,7 @@
         <v>38911.21502510818</v>
       </c>
       <c r="F5" t="n">
-        <v>39044.41815335744</v>
+        <v>39044.41815335746</v>
       </c>
       <c r="G5" t="n">
         <v>47537.83459212704</v>
@@ -26494,10 +26494,10 @@
         <v>58683.10544796677</v>
       </c>
       <c r="K5" t="n">
-        <v>58683.10544796678</v>
+        <v>58683.10544796677</v>
       </c>
       <c r="L5" t="n">
-        <v>58683.10544796678</v>
+        <v>58683.10544796677</v>
       </c>
       <c r="M5" t="n">
         <v>47537.83459212704</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400031.4614426492</v>
+        <v>-400035.8690197972</v>
       </c>
       <c r="C6" t="n">
-        <v>-400031.4614426494</v>
+        <v>-400035.8690197974</v>
       </c>
       <c r="D6" t="n">
-        <v>-400031.4614426492</v>
+        <v>-400035.8690197972</v>
       </c>
       <c r="E6" t="n">
-        <v>-611344.1434468795</v>
+        <v>-611633.4385341799</v>
       </c>
       <c r="F6" t="n">
-        <v>-282678.4303875157</v>
+        <v>-282966.0335339394</v>
       </c>
       <c r="G6" t="n">
         <v>-428140.1930734002</v>
@@ -26552,13 +26552,13 @@
         <v>-437865.4594603396</v>
       </c>
       <c r="M6" t="n">
-        <v>-444264.3885864953</v>
+        <v>-444264.3885864955</v>
       </c>
       <c r="N6" t="n">
-        <v>-347853.4993589275</v>
+        <v>-347853.4993589276</v>
       </c>
       <c r="O6" t="n">
-        <v>-380108.8940928069</v>
+        <v>-380108.894092807</v>
       </c>
       <c r="P6" t="n">
         <v>-347405.0359328018</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="F2" t="n">
         <v>122.1864320842266</v>
       </c>
       <c r="G2" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="H2" t="n">
         <v>223.2155443464111</v>
@@ -26707,13 +26707,13 @@
         <v>223.2155443464111</v>
       </c>
       <c r="J2" t="n">
+        <v>142.0873990862972</v>
+      </c>
+      <c r="K2" t="n">
         <v>142.0873990862971</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>142.0873990862972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>142.0873990862971</v>
       </c>
       <c r="M2" t="n">
         <v>223.2155443464111</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>130.9752859785439</v>
+      </c>
+      <c r="F3" t="n">
         <v>130.9752859785438</v>
-      </c>
-      <c r="F3" t="n">
-        <v>130.9752859785437</v>
       </c>
       <c r="G3" t="n">
         <v>130.9752859785438</v>
@@ -26799,34 +26799,34 @@
         <v>424.0766880244585</v>
       </c>
       <c r="F4" t="n">
-        <v>426.2675289496109</v>
+        <v>426.2675289496111</v>
       </c>
       <c r="G4" t="n">
-        <v>426.2675289496109</v>
+        <v>426.2675289496111</v>
       </c>
       <c r="H4" t="n">
-        <v>426.267528949611</v>
+        <v>426.2675289496111</v>
       </c>
       <c r="I4" t="n">
-        <v>426.267528949611</v>
+        <v>426.2675289496111</v>
       </c>
       <c r="J4" t="n">
-        <v>721.7549121685627</v>
+        <v>721.7549121685624</v>
       </c>
       <c r="K4" t="n">
-        <v>721.7549121685627</v>
+        <v>721.7549121685624</v>
       </c>
       <c r="L4" t="n">
-        <v>721.7549121685627</v>
+        <v>721.7549121685624</v>
       </c>
       <c r="M4" t="n">
-        <v>426.2675289496109</v>
+        <v>426.2675289496111</v>
       </c>
       <c r="N4" t="n">
         <v>426.2675289496109</v>
       </c>
       <c r="O4" t="n">
-        <v>434.1689789072688</v>
+        <v>434.1689789072689</v>
       </c>
       <c r="P4" t="n">
         <v>434.1689789072689</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>101.0291122621844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>41.05828682411274</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>101.0291122621844</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9752859785438</v>
+        <v>130.9752859785439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>424.0766880244585</v>
       </c>
       <c r="F4" t="n">
-        <v>2.190840925152486</v>
+        <v>2.1908409251526</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.4873832189517</v>
+        <v>295.4873832189514</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>128.5893048055067</v>
+        <v>128.5893048055071</v>
       </c>
       <c r="N4" t="n">
         <v>2.190840925152486</v>
       </c>
       <c r="O4" t="n">
-        <v>7.901449957657803</v>
+        <v>7.901449957657917</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>101.0291122621844</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>424.0766880244585</v>
       </c>
       <c r="N4" t="n">
-        <v>2.190840925152486</v>
+        <v>2.1908409251526</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="E11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="F11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="G11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="H11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="I11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>108.7759430713305</v>
       </c>
       <c r="S11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="T11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="U11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="V11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="W11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="X11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D12" t="n">
-        <v>122.1864320842267</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>122.1864320842267</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="G12" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.20360100342833</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>122.1864320842267</v>
+        <v>31.937553114472</v>
       </c>
       <c r="U12" t="n">
-        <v>122.1864320842267</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>76.92038419526929</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="W12" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="E13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="F13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="G13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="H13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="K13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="L13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="M13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="N13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="O13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="P13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="R13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="S13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="T13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="U13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="V13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="W13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="X13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.7759430713306</v>
+        <v>108.7759430713305</v>
       </c>
       <c r="S14" t="n">
         <v>122.1864320842266</v>
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="E15" t="n">
-        <v>122.1864320842266</v>
+        <v>23.43533765214005</v>
       </c>
       <c r="F15" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.88008043805262</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>122.1864320842266</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="U15" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>122.1864320842266</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Y15" t="n">
         <v>122.1864320842266</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="C17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="D17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="E17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="F17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="G17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="H17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="I17" t="n">
         <v>184.9251130432484</v>
@@ -28618,19 +28618,19 @@
         <v>220.6602154301045</v>
       </c>
       <c r="U17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="V17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="W17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="X17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>18.86933628808391</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>107.7416892983143</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.80395860762667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>8.974276290007182</v>
       </c>
       <c r="S18" t="n">
         <v>163.7287805460299</v>
@@ -28697,16 +28697,16 @@
         <v>197.2470008911528</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>223.215544346411</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.215544346411</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>151.7057887408392</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -28731,7 +28731,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.6534039881795</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.98343169308806</v>
+        <v>10.4279974218459</v>
       </c>
       <c r="R19" t="n">
         <v>162.7714138263417</v>
@@ -28773,19 +28773,19 @@
         <v>218.2413475643591</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="U19" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="V19" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="X19" t="n">
-        <v>223.2155443464111</v>
+        <v>223.215544346411</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.55743374480355</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.20360100342833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T21" t="n">
         <v>197.2470008911528</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>201.3994816952672</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28974,7 +28974,7 @@
         <v>167.6534039881795</v>
       </c>
       <c r="H22" t="n">
-        <v>159.5341731615887</v>
+        <v>23.80314917362981</v>
       </c>
       <c r="I22" t="n">
         <v>146.6558214528623</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.98343169308806</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>162.7714138263417</v>
@@ -29019,7 +29019,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="W22" t="n">
-        <v>27.50108866536408</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="X22" t="n">
         <v>223.2155443464111</v>
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>19.24472985439181</v>
       </c>
       <c r="G24" t="n">
         <v>135.7414897785979</v>
@@ -29135,7 +29135,7 @@
         <v>107.7416892983143</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.80395860762668</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,10 +29165,10 @@
         <v>77.20360100342833</v>
       </c>
       <c r="S24" t="n">
-        <v>154.8786126173822</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U24" t="n">
         <v>223.2155443464111</v>
@@ -29199,7 +29199,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -29208,13 +29208,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6534039881795</v>
+        <v>118.5947697599948</v>
       </c>
       <c r="H25" t="n">
         <v>159.5341731615887</v>
       </c>
       <c r="I25" t="n">
-        <v>146.6558214528623</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>72.14056953343247</v>
@@ -29256,7 +29256,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="W25" t="n">
-        <v>176.5066551798834</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="X25" t="n">
         <v>223.2155443464111</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="C26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="D26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="F26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="G26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="H26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="I26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="K26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="L26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="M26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="N26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="O26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862964</v>
       </c>
       <c r="P26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0873990862981</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="S26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="U26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="V26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="X26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>90.77962533571386</v>
       </c>
       <c r="H27" t="n">
-        <v>13.97566672808742</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.80395860762668</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,10 +29402,10 @@
         <v>77.20360100342833</v>
       </c>
       <c r="S27" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="I28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="J28" t="n">
         <v>72.14056953343247</v>
@@ -29460,46 +29460,46 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>94.22466229703349</v>
       </c>
       <c r="M28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="N28" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="P28" t="n">
-        <v>12.12069490382671</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.0873990862971</v>
+        <v>59.98343169308806</v>
       </c>
       <c r="R28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="U28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="V28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="C29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="D29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="E29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="F29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="G29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="H29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="I29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="J29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="K29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="L29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="M29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="N29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="O29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="P29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="R29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="S29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="T29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="U29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="V29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="W29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="X29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
     </row>
     <row r="30">
@@ -29597,16 +29597,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="F30" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7416892983143</v>
+        <v>90.77962533571387</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.20360100342833</v>
       </c>
       <c r="S30" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>60.24153704082789</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="C31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="D31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="E31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="F31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="I31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="J31" t="n">
-        <v>142.0873990862972</v>
+        <v>72.14056953343247</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="L31" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0873990862972</v>
+        <v>12.12069490382572</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="P31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.26126443725757</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="R31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="T31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="U31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="W31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="X31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0873990862972</v>
+        <v>142.0873990862971</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="C32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="D32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="F32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="G32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="H32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="I32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="J32" t="n">
-        <v>142.0873990862978</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="K32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="L32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="M32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="N32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862969</v>
       </c>
       <c r="O32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="P32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="R32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="S32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="U32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="V32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="X32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="33">
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7416892983143</v>
       </c>
       <c r="I33" t="n">
         <v>76.80395860762668</v>
@@ -29876,10 +29876,10 @@
         <v>77.20360100342833</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>54.66728582376896</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>13.9756667280873</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="C34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="D34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="F34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="G34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="I34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="J34" t="n">
-        <v>142.0873990862971</v>
+        <v>72.14056953343247</v>
       </c>
       <c r="K34" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>12.12069490382488</v>
       </c>
       <c r="N34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.27783274417006</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="P34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.98343169308806</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="R34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="S34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="U34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="V34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="X34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="35">
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>87.34859337319575</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -30074,10 +30074,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H36" t="n">
         <v>107.7416892983143</v>
@@ -30110,19 +30110,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.7405663848925</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>223.2155443464111</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30153,10 +30153,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6534039881795</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>159.5341731615887</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.98343169308806</v>
+        <v>31.92238000022059</v>
       </c>
       <c r="R37" t="n">
-        <v>113.2159795550991</v>
+        <v>162.7714138263417</v>
       </c>
       <c r="S37" t="n">
         <v>218.2413475643591</v>
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6.674651558854578</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30350,22 +30350,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>21.62999453168604</v>
       </c>
       <c r="T39" t="n">
         <v>197.2470008911528</v>
       </c>
       <c r="U39" t="n">
-        <v>223.2155443464111</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>223.2155443464111</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6534039881795</v>
+        <v>104.0629495336531</v>
       </c>
       <c r="H40" t="n">
         <v>159.5341731615887</v>
@@ -30402,7 +30402,7 @@
         <v>146.6558214528623</v>
       </c>
       <c r="J40" t="n">
-        <v>72.14056953343247</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.98343169308806</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>162.7714138263417</v>
@@ -30444,7 +30444,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="X40" t="n">
-        <v>176.5066551798833</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>31.28654932729137</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.7759430713305</v>
+        <v>113.2688394287965</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8665624602787</v>
+        <v>220.6602154301044</v>
       </c>
       <c r="T41" t="n">
         <v>220.6602154301044</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.27437593441351</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7416892983143</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.80395860762668</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,13 +30587,13 @@
         <v>77.20360100342833</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>211.7963272051247</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30666,13 +30666,13 @@
         <v>162.7714138263417</v>
       </c>
       <c r="S43" t="n">
-        <v>218.2413475643591</v>
+        <v>35.30353646484537</v>
       </c>
       <c r="T43" t="n">
         <v>220.6602154301044</v>
       </c>
       <c r="U43" t="n">
-        <v>37.72240433059065</v>
+        <v>220.6602154301044</v>
       </c>
       <c r="V43" t="n">
         <v>220.6602154301044</v>
@@ -30715,7 +30715,7 @@
         <v>220.6602154301045</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9251130432484</v>
+        <v>216.2116623705402</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>31.28654932729182</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30776,10 +30776,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>21.80459380136418</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7416892983143</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.80395860762668</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30830,13 +30830,13 @@
         <v>197.2470008911528</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>68.29009512157546</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>220.6602154301045</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.52653381297907</v>
+        <v>0.5265338129790705</v>
       </c>
       <c r="H11" t="n">
-        <v>5.392364412171902</v>
+        <v>5.392364412171908</v>
       </c>
       <c r="I11" t="n">
-        <v>20.29919482487561</v>
+        <v>20.29919482487564</v>
       </c>
       <c r="J11" t="n">
-        <v>44.68889920933238</v>
+        <v>44.68889920933243</v>
       </c>
       <c r="K11" t="n">
-        <v>66.97707551273642</v>
+        <v>66.97707551273649</v>
       </c>
       <c r="L11" t="n">
-        <v>83.09098469169466</v>
+        <v>83.09098469169474</v>
       </c>
       <c r="M11" t="n">
-        <v>92.45473038826118</v>
+        <v>92.45473038826128</v>
       </c>
       <c r="N11" t="n">
-        <v>93.95074458438798</v>
+        <v>93.95074458438808</v>
       </c>
       <c r="O11" t="n">
-        <v>88.71502398157735</v>
+        <v>88.71502398157745</v>
       </c>
       <c r="P11" t="n">
-        <v>75.71622047365655</v>
+        <v>75.71622047365662</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.85972829634358</v>
+        <v>56.85972829634364</v>
       </c>
       <c r="R11" t="n">
-        <v>33.07487962954653</v>
+        <v>33.07487962954657</v>
       </c>
       <c r="S11" t="n">
-        <v>11.99838926326057</v>
+        <v>11.99838926326058</v>
       </c>
       <c r="T11" t="n">
-        <v>2.30490176631588</v>
+        <v>2.304901766315882</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04212270503832559</v>
+        <v>0.04212270503832564</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2817204264444149</v>
+        <v>0.2817204264444152</v>
       </c>
       <c r="H12" t="n">
-        <v>2.720826223818428</v>
+        <v>2.720826223818431</v>
       </c>
       <c r="I12" t="n">
-        <v>9.699584857844988</v>
+        <v>9.699584857844997</v>
       </c>
       <c r="J12" t="n">
-        <v>26.61640221946992</v>
+        <v>26.61640221946995</v>
       </c>
       <c r="K12" t="n">
-        <v>45.49167079124572</v>
+        <v>45.49167079124577</v>
       </c>
       <c r="L12" t="n">
-        <v>61.16916539969631</v>
+        <v>61.16916539969638</v>
       </c>
       <c r="M12" t="n">
-        <v>71.38153085830633</v>
+        <v>71.38153085830642</v>
       </c>
       <c r="N12" t="n">
-        <v>73.27078757775158</v>
+        <v>73.27078757775165</v>
       </c>
       <c r="O12" t="n">
-        <v>67.02845602337796</v>
+        <v>67.02845602337803</v>
       </c>
       <c r="P12" t="n">
-        <v>53.79624529182867</v>
+        <v>53.79624529182873</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.96136531244847</v>
+        <v>35.96136531244851</v>
       </c>
       <c r="R12" t="n">
-        <v>17.49137875766289</v>
+        <v>17.49137875766291</v>
       </c>
       <c r="S12" t="n">
-        <v>5.232833359614457</v>
+        <v>5.232833359614463</v>
       </c>
       <c r="T12" t="n">
-        <v>1.135531017115865</v>
+        <v>1.135531017115866</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01853423858186941</v>
+        <v>0.01853423858186943</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2361849419285215</v>
+        <v>0.2361849419285217</v>
       </c>
       <c r="H13" t="n">
-        <v>2.099898847328129</v>
+        <v>2.099898847328131</v>
       </c>
       <c r="I13" t="n">
-        <v>7.102725344541358</v>
+        <v>7.102725344541366</v>
       </c>
       <c r="J13" t="n">
-        <v>16.69827539434647</v>
+        <v>16.69827539434649</v>
       </c>
       <c r="K13" t="n">
-        <v>27.44039598042276</v>
+        <v>27.44039598042279</v>
       </c>
       <c r="L13" t="n">
-        <v>35.11425945726401</v>
+        <v>35.11425945726405</v>
       </c>
       <c r="M13" t="n">
-        <v>37.0230632152136</v>
+        <v>37.02306321521364</v>
       </c>
       <c r="N13" t="n">
-        <v>36.14273752257095</v>
+        <v>36.142737522571</v>
       </c>
       <c r="O13" t="n">
-        <v>33.38366797367867</v>
+        <v>33.3836679736787</v>
       </c>
       <c r="P13" t="n">
-        <v>28.56549515833681</v>
+        <v>28.56549515833684</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.77726818276011</v>
+        <v>19.77726818276013</v>
       </c>
       <c r="R13" t="n">
-        <v>10.61973384344061</v>
+        <v>10.61973384344062</v>
       </c>
       <c r="S13" t="n">
-        <v>4.116059397063414</v>
+        <v>4.116059397063419</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009153842785501</v>
+        <v>1.009153842785502</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01288281501428301</v>
+        <v>0.01288281501428302</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5265338129790698</v>
+        <v>0.5265338129790701</v>
       </c>
       <c r="H14" t="n">
-        <v>5.392364412171899</v>
+        <v>5.392364412171903</v>
       </c>
       <c r="I14" t="n">
-        <v>20.29919482487561</v>
+        <v>20.29919482487562</v>
       </c>
       <c r="J14" t="n">
-        <v>44.68889920933236</v>
+        <v>44.68889920933239</v>
       </c>
       <c r="K14" t="n">
-        <v>66.97707551273639</v>
+        <v>66.97707551273643</v>
       </c>
       <c r="L14" t="n">
-        <v>83.09098469169462</v>
+        <v>83.09098469169467</v>
       </c>
       <c r="M14" t="n">
-        <v>92.45473038826114</v>
+        <v>92.45473038826121</v>
       </c>
       <c r="N14" t="n">
-        <v>93.95074458438793</v>
+        <v>93.95074458438799</v>
       </c>
       <c r="O14" t="n">
-        <v>88.7150239815773</v>
+        <v>88.71502398157736</v>
       </c>
       <c r="P14" t="n">
-        <v>75.71622047365651</v>
+        <v>75.71622047365656</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.85972829634355</v>
+        <v>56.85972829634359</v>
       </c>
       <c r="R14" t="n">
-        <v>33.07487962954652</v>
+        <v>33.07487962954654</v>
       </c>
       <c r="S14" t="n">
-        <v>11.99838926326056</v>
+        <v>11.99838926326057</v>
       </c>
       <c r="T14" t="n">
-        <v>2.304901766315879</v>
+        <v>2.304901766315881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04212270503832557</v>
+        <v>0.0421227050383256</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2817204264444148</v>
+        <v>0.2817204264444149</v>
       </c>
       <c r="H15" t="n">
-        <v>2.720826223818427</v>
+        <v>2.720826223818429</v>
       </c>
       <c r="I15" t="n">
-        <v>9.699584857844982</v>
+        <v>9.699584857844989</v>
       </c>
       <c r="J15" t="n">
-        <v>26.61640221946991</v>
+        <v>26.61640221946993</v>
       </c>
       <c r="K15" t="n">
-        <v>45.4916707912457</v>
+        <v>45.49167079124572</v>
       </c>
       <c r="L15" t="n">
-        <v>61.16916539969629</v>
+        <v>61.16916539969633</v>
       </c>
       <c r="M15" t="n">
-        <v>71.38153085830631</v>
+        <v>71.38153085830635</v>
       </c>
       <c r="N15" t="n">
-        <v>73.27078757775153</v>
+        <v>73.27078757775159</v>
       </c>
       <c r="O15" t="n">
-        <v>67.02845602337793</v>
+        <v>67.02845602337797</v>
       </c>
       <c r="P15" t="n">
-        <v>53.79624529182864</v>
+        <v>53.79624529182868</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.96136531244846</v>
+        <v>35.96136531244848</v>
       </c>
       <c r="R15" t="n">
-        <v>17.49137875766288</v>
+        <v>17.49137875766289</v>
       </c>
       <c r="S15" t="n">
-        <v>5.232833359614455</v>
+        <v>5.232833359614459</v>
       </c>
       <c r="T15" t="n">
-        <v>1.135531017115864</v>
+        <v>1.135531017115865</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0185342385818694</v>
+        <v>0.01853423858186941</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2361849419285214</v>
+        <v>0.2361849419285215</v>
       </c>
       <c r="H16" t="n">
-        <v>2.099898847328128</v>
+        <v>2.099898847328129</v>
       </c>
       <c r="I16" t="n">
-        <v>7.102725344541355</v>
+        <v>7.102725344541359</v>
       </c>
       <c r="J16" t="n">
-        <v>16.69827539434646</v>
+        <v>16.69827539434647</v>
       </c>
       <c r="K16" t="n">
-        <v>27.44039598042275</v>
+        <v>27.44039598042277</v>
       </c>
       <c r="L16" t="n">
-        <v>35.114259457264</v>
+        <v>35.11425945726402</v>
       </c>
       <c r="M16" t="n">
-        <v>37.02306321521358</v>
+        <v>37.0230632152136</v>
       </c>
       <c r="N16" t="n">
-        <v>36.14273752257094</v>
+        <v>36.14273752257096</v>
       </c>
       <c r="O16" t="n">
-        <v>33.38366797367866</v>
+        <v>33.38366797367868</v>
       </c>
       <c r="P16" t="n">
-        <v>28.56549515833679</v>
+        <v>28.56549515833681</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.7772681827601</v>
+        <v>19.77726818276011</v>
       </c>
       <c r="R16" t="n">
-        <v>10.6197338434406</v>
+        <v>10.61973384344061</v>
       </c>
       <c r="S16" t="n">
-        <v>4.116059397063412</v>
+        <v>4.116059397063415</v>
       </c>
       <c r="T16" t="n">
-        <v>1.0091538427855</v>
+        <v>1.009153842785501</v>
       </c>
       <c r="U16" t="n">
-        <v>0.012882815014283</v>
+        <v>0.01288281501428301</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.52653381297907</v>
+        <v>0.5265338129790701</v>
       </c>
       <c r="H17" t="n">
-        <v>5.392364412171902</v>
+        <v>5.392364412171903</v>
       </c>
       <c r="I17" t="n">
-        <v>20.29919482487561</v>
+        <v>20.29919482487562</v>
       </c>
       <c r="J17" t="n">
-        <v>44.68889920933238</v>
+        <v>44.68889920933239</v>
       </c>
       <c r="K17" t="n">
-        <v>66.97707551273642</v>
+        <v>66.97707551273643</v>
       </c>
       <c r="L17" t="n">
-        <v>83.09098469169466</v>
+        <v>83.09098469169467</v>
       </c>
       <c r="M17" t="n">
-        <v>92.45473038826118</v>
+        <v>92.45473038826121</v>
       </c>
       <c r="N17" t="n">
-        <v>93.95074458438798</v>
+        <v>93.95074458438799</v>
       </c>
       <c r="O17" t="n">
-        <v>88.71502398157735</v>
+        <v>88.71502398157736</v>
       </c>
       <c r="P17" t="n">
-        <v>75.71622047365655</v>
+        <v>75.71622047365656</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.85972829634358</v>
+        <v>56.85972829634359</v>
       </c>
       <c r="R17" t="n">
-        <v>33.07487962954653</v>
+        <v>33.07487962954654</v>
       </c>
       <c r="S17" t="n">
         <v>11.99838926326057</v>
       </c>
       <c r="T17" t="n">
-        <v>2.30490176631588</v>
+        <v>2.304901766315881</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04212270503832559</v>
+        <v>0.0421227050383256</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,40 +32306,40 @@
         <v>0.2817204264444149</v>
       </c>
       <c r="H18" t="n">
-        <v>2.720826223818428</v>
+        <v>2.720826223818429</v>
       </c>
       <c r="I18" t="n">
-        <v>9.699584857844988</v>
+        <v>9.699584857844989</v>
       </c>
       <c r="J18" t="n">
-        <v>26.61640221946992</v>
+        <v>26.61640221946993</v>
       </c>
       <c r="K18" t="n">
         <v>45.49167079124572</v>
       </c>
       <c r="L18" t="n">
-        <v>61.16916539969631</v>
+        <v>61.16916539969633</v>
       </c>
       <c r="M18" t="n">
-        <v>71.38153085830633</v>
+        <v>71.38153085830635</v>
       </c>
       <c r="N18" t="n">
-        <v>73.27078757775158</v>
+        <v>73.27078757775159</v>
       </c>
       <c r="O18" t="n">
-        <v>67.02845602337796</v>
+        <v>67.02845602337797</v>
       </c>
       <c r="P18" t="n">
-        <v>53.79624529182867</v>
+        <v>53.79624529182868</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.96136531244847</v>
+        <v>35.96136531244848</v>
       </c>
       <c r="R18" t="n">
         <v>17.49137875766289</v>
       </c>
       <c r="S18" t="n">
-        <v>5.232833359614457</v>
+        <v>5.232833359614459</v>
       </c>
       <c r="T18" t="n">
         <v>1.135531017115865</v>
@@ -32388,25 +32388,25 @@
         <v>2.099898847328129</v>
       </c>
       <c r="I19" t="n">
-        <v>7.102725344541358</v>
+        <v>7.102725344541359</v>
       </c>
       <c r="J19" t="n">
         <v>16.69827539434647</v>
       </c>
       <c r="K19" t="n">
-        <v>27.44039598042276</v>
+        <v>27.44039598042277</v>
       </c>
       <c r="L19" t="n">
-        <v>35.11425945726401</v>
+        <v>35.11425945726402</v>
       </c>
       <c r="M19" t="n">
         <v>37.0230632152136</v>
       </c>
       <c r="N19" t="n">
-        <v>36.14273752257095</v>
+        <v>36.14273752257096</v>
       </c>
       <c r="O19" t="n">
-        <v>33.38366797367867</v>
+        <v>33.38366797367868</v>
       </c>
       <c r="P19" t="n">
         <v>28.56549515833681</v>
@@ -32418,7 +32418,7 @@
         <v>10.61973384344061</v>
       </c>
       <c r="S19" t="n">
-        <v>4.116059397063414</v>
+        <v>4.116059397063415</v>
       </c>
       <c r="T19" t="n">
         <v>1.009153842785501</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.52653381297907</v>
+        <v>0.5265338129790701</v>
       </c>
       <c r="H20" t="n">
-        <v>5.392364412171902</v>
+        <v>5.392364412171903</v>
       </c>
       <c r="I20" t="n">
-        <v>20.29919482487561</v>
+        <v>20.29919482487562</v>
       </c>
       <c r="J20" t="n">
-        <v>44.68889920933238</v>
+        <v>44.68889920933239</v>
       </c>
       <c r="K20" t="n">
-        <v>66.97707551273642</v>
+        <v>66.97707551273643</v>
       </c>
       <c r="L20" t="n">
-        <v>83.09098469169466</v>
+        <v>83.09098469169467</v>
       </c>
       <c r="M20" t="n">
-        <v>92.45473038826118</v>
+        <v>92.45473038826121</v>
       </c>
       <c r="N20" t="n">
-        <v>93.95074458438798</v>
+        <v>93.95074458438799</v>
       </c>
       <c r="O20" t="n">
-        <v>88.71502398157735</v>
+        <v>88.71502398157736</v>
       </c>
       <c r="P20" t="n">
-        <v>75.71622047365655</v>
+        <v>75.71622047365656</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.85972829634358</v>
+        <v>56.85972829634359</v>
       </c>
       <c r="R20" t="n">
-        <v>33.07487962954653</v>
+        <v>33.07487962954654</v>
       </c>
       <c r="S20" t="n">
         <v>11.99838926326057</v>
       </c>
       <c r="T20" t="n">
-        <v>2.30490176631588</v>
+        <v>2.304901766315881</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04212270503832559</v>
+        <v>0.0421227050383256</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>0.2817204264444149</v>
       </c>
       <c r="H21" t="n">
-        <v>2.720826223818428</v>
+        <v>2.720826223818429</v>
       </c>
       <c r="I21" t="n">
-        <v>9.699584857844988</v>
+        <v>9.699584857844989</v>
       </c>
       <c r="J21" t="n">
-        <v>26.61640221946992</v>
+        <v>26.61640221946993</v>
       </c>
       <c r="K21" t="n">
         <v>45.49167079124572</v>
       </c>
       <c r="L21" t="n">
-        <v>61.16916539969631</v>
+        <v>61.16916539969633</v>
       </c>
       <c r="M21" t="n">
-        <v>71.38153085830633</v>
+        <v>71.38153085830635</v>
       </c>
       <c r="N21" t="n">
-        <v>73.27078757775158</v>
+        <v>73.27078757775159</v>
       </c>
       <c r="O21" t="n">
-        <v>67.02845602337796</v>
+        <v>67.02845602337797</v>
       </c>
       <c r="P21" t="n">
-        <v>53.79624529182867</v>
+        <v>53.79624529182868</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.96136531244847</v>
+        <v>35.96136531244848</v>
       </c>
       <c r="R21" t="n">
         <v>17.49137875766289</v>
       </c>
       <c r="S21" t="n">
-        <v>5.232833359614457</v>
+        <v>5.232833359614459</v>
       </c>
       <c r="T21" t="n">
         <v>1.135531017115865</v>
@@ -32625,25 +32625,25 @@
         <v>2.099898847328129</v>
       </c>
       <c r="I22" t="n">
-        <v>7.102725344541358</v>
+        <v>7.102725344541359</v>
       </c>
       <c r="J22" t="n">
         <v>16.69827539434647</v>
       </c>
       <c r="K22" t="n">
-        <v>27.44039598042276</v>
+        <v>27.44039598042277</v>
       </c>
       <c r="L22" t="n">
-        <v>35.11425945726401</v>
+        <v>35.11425945726402</v>
       </c>
       <c r="M22" t="n">
         <v>37.0230632152136</v>
       </c>
       <c r="N22" t="n">
-        <v>36.14273752257095</v>
+        <v>36.14273752257096</v>
       </c>
       <c r="O22" t="n">
-        <v>33.38366797367867</v>
+        <v>33.38366797367868</v>
       </c>
       <c r="P22" t="n">
         <v>28.56549515833681</v>
@@ -32655,7 +32655,7 @@
         <v>10.61973384344061</v>
       </c>
       <c r="S22" t="n">
-        <v>4.116059397063414</v>
+        <v>4.116059397063415</v>
       </c>
       <c r="T22" t="n">
         <v>1.009153842785501</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.02962207476996</v>
+        <v>35.3547771994179</v>
       </c>
       <c r="K11" t="n">
         <v>189.5006998178918</v>
       </c>
       <c r="L11" t="n">
-        <v>287.5863932284255</v>
+        <v>287.5863932284256</v>
       </c>
       <c r="M11" t="n">
-        <v>335.3612278242161</v>
+        <v>335.3612278242162</v>
       </c>
       <c r="N11" t="n">
-        <v>325.1138089661753</v>
+        <v>325.1138089661754</v>
       </c>
       <c r="O11" t="n">
-        <v>260.4014563586879</v>
+        <v>260.4014563586881</v>
       </c>
       <c r="P11" t="n">
-        <v>184.9347061106107</v>
+        <v>184.9347061106108</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.2444260797044</v>
+        <v>60.91927095505626</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.0843929734951</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>186.1401142843275</v>
       </c>
       <c r="L12" t="n">
-        <v>128.0156163415901</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1341140843384</v>
+        <v>417.1341140843385</v>
       </c>
       <c r="N12" t="n">
-        <v>424.0766880244585</v>
+        <v>331.8677971082253</v>
       </c>
       <c r="O12" t="n">
-        <v>337.6139297378433</v>
+        <v>337.6139297378434</v>
       </c>
       <c r="P12" t="n">
-        <v>254.3724774483913</v>
+        <v>254.3724774483914</v>
       </c>
       <c r="Q12" t="n">
         <v>117.9595148238606</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.04586255079427</v>
+        <v>50.04586255079418</v>
       </c>
       <c r="K13" t="n">
         <v>134.8524183468161</v>
       </c>
       <c r="L13" t="n">
-        <v>194.7618217705</v>
+        <v>194.7618217704999</v>
       </c>
       <c r="M13" t="n">
-        <v>209.4069032963489</v>
+        <v>209.4069032963488</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5261892714356</v>
+        <v>212.5261892714355</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1383080878765</v>
+        <v>190.1383080878764</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8739491412474</v>
+        <v>156.8739491412473</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20300039113867</v>
+        <v>62.20300039113857</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.02962207476995</v>
+        <v>44.02962207477007</v>
       </c>
       <c r="K14" t="n">
-        <v>189.5006998178917</v>
+        <v>189.5006998178918</v>
       </c>
       <c r="L14" t="n">
-        <v>287.5863932284254</v>
+        <v>287.5863932284255</v>
       </c>
       <c r="M14" t="n">
-        <v>335.361227824216</v>
+        <v>335.3612278242161</v>
       </c>
       <c r="N14" t="n">
         <v>325.1138089661753</v>
@@ -35662,10 +35662,10 @@
         <v>260.4014563586879</v>
       </c>
       <c r="P14" t="n">
-        <v>184.9347061106106</v>
+        <v>184.9347061106107</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.91927095505613</v>
+        <v>60.91927095505621</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.08439297349508</v>
       </c>
       <c r="K15" t="n">
         <v>186.1401142843275</v>
@@ -35735,10 +35735,10 @@
         <v>417.1341140843384</v>
       </c>
       <c r="N15" t="n">
-        <v>62.8744307271558</v>
+        <v>28.79003775366059</v>
       </c>
       <c r="O15" t="n">
-        <v>337.6139297378433</v>
+        <v>337.6139297378434</v>
       </c>
       <c r="P15" t="n">
         <v>254.3724774483913</v>
@@ -35805,7 +35805,7 @@
         <v>50.04586255079415</v>
       </c>
       <c r="K16" t="n">
-        <v>134.852418346816</v>
+        <v>134.8524183468161</v>
       </c>
       <c r="L16" t="n">
         <v>194.7618217704999</v>
@@ -35814,16 +35814,16 @@
         <v>209.4069032963488</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5261892714354</v>
+        <v>212.5261892714355</v>
       </c>
       <c r="O16" t="n">
-        <v>190.1383080878763</v>
+        <v>190.1383080878764</v>
       </c>
       <c r="P16" t="n">
         <v>156.8739491412473</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20300039113854</v>
+        <v>62.20300039113856</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.02962207476996</v>
+        <v>44.02962207476997</v>
       </c>
       <c r="K17" t="n">
         <v>189.5006998178918</v>
@@ -35902,7 +35902,7 @@
         <v>184.9347061106107</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.91927095505567</v>
+        <v>60.91927095505621</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.08439297349508</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>186.1401142843275</v>
       </c>
       <c r="L18" t="n">
-        <v>134.4996202917886</v>
+        <v>311.7526042299165</v>
       </c>
       <c r="M18" t="n">
         <v>417.1341140843384</v>
       </c>
       <c r="N18" t="n">
-        <v>426.2675289496109</v>
+        <v>28.79003775366059</v>
       </c>
       <c r="O18" t="n">
-        <v>337.6139297378433</v>
+        <v>337.6139297378434</v>
       </c>
       <c r="P18" t="n">
         <v>254.3724774483913</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.66598626258941</v>
+        <v>12.66598626258942</v>
       </c>
       <c r="L19" t="n">
         <v>72.5753896862733</v>
@@ -36054,10 +36054,10 @@
         <v>90.33975718720885</v>
       </c>
       <c r="O19" t="n">
-        <v>67.95187600364973</v>
+        <v>67.95187600364974</v>
       </c>
       <c r="P19" t="n">
-        <v>34.68751705702064</v>
+        <v>34.68751705702066</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.02962207477</v>
+        <v>44.02962207476997</v>
       </c>
       <c r="K20" t="n">
         <v>189.5006998178918</v>
@@ -36139,7 +36139,7 @@
         <v>184.9347061106107</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.9192709550562</v>
+        <v>60.91927095505621</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.08439297349507</v>
+        <v>34.08439297349508</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>186.1401142843275</v>
       </c>
       <c r="L21" t="n">
         <v>311.7526042299165</v>
       </c>
       <c r="M21" t="n">
-        <v>323.7562519965765</v>
+        <v>417.1341140843384</v>
       </c>
       <c r="N21" t="n">
-        <v>426.267528949611</v>
+        <v>28.79003775366059</v>
       </c>
       <c r="O21" t="n">
-        <v>337.6139297378433</v>
+        <v>337.6139297378434</v>
       </c>
       <c r="P21" t="n">
         <v>254.3724774483913</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.9595148238606</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.66598626258941</v>
+        <v>12.66598626258942</v>
       </c>
       <c r="L22" t="n">
         <v>72.5753896862733</v>
@@ -36291,10 +36291,10 @@
         <v>90.33975718720885</v>
       </c>
       <c r="O22" t="n">
-        <v>67.95187600364973</v>
+        <v>67.95187600364974</v>
       </c>
       <c r="P22" t="n">
-        <v>34.68751705702064</v>
+        <v>34.68751705702066</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.02962207476996</v>
+        <v>44.02962207477024</v>
       </c>
       <c r="K23" t="n">
         <v>189.5006998178918</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.08439297349507</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>186.1401142843275</v>
       </c>
       <c r="L24" t="n">
         <v>311.7526042299165</v>
@@ -36446,16 +36446,16 @@
         <v>417.1341140843384</v>
       </c>
       <c r="N24" t="n">
-        <v>426.267528949611</v>
+        <v>426.2675289496111</v>
       </c>
       <c r="O24" t="n">
         <v>337.6139297378433</v>
       </c>
       <c r="P24" t="n">
-        <v>43.0351005367687</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9595148238606</v>
+        <v>8.938894049796858</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.117021161067</v>
+        <v>186.1170211610672</v>
       </c>
       <c r="K26" t="n">
-        <v>331.5880989041888</v>
+        <v>331.5880989041889</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6737923147226</v>
+        <v>429.6737923147227</v>
       </c>
       <c r="M26" t="n">
-        <v>477.4486269105132</v>
+        <v>477.4486269105133</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2012080524723</v>
+        <v>467.2012080524725</v>
       </c>
       <c r="O26" t="n">
-        <v>402.488855444985</v>
+        <v>402.4888554449843</v>
       </c>
       <c r="P26" t="n">
-        <v>327.0221051969078</v>
+        <v>327.0221051969079</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0066700413533</v>
+        <v>203.0066700413534</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31145601496751</v>
+        <v>33.31145601496664</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,22 +36756,22 @@
         <v>12.66598626258941</v>
       </c>
       <c r="L28" t="n">
-        <v>72.5753896862733</v>
+        <v>166.8000519833068</v>
       </c>
       <c r="M28" t="n">
-        <v>229.3078702984192</v>
+        <v>229.3078702984193</v>
       </c>
       <c r="N28" t="n">
-        <v>232.4271562735059</v>
+        <v>90.33975718720885</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0392750899468</v>
+        <v>210.0392750899469</v>
       </c>
       <c r="P28" t="n">
-        <v>46.80821196084735</v>
+        <v>176.7749161433178</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.103967393209</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>402.4888554449851</v>
       </c>
       <c r="P29" t="n">
-        <v>327.0221051969079</v>
+        <v>327.0221051969078</v>
       </c>
       <c r="Q29" t="n">
         <v>203.0066700413533</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31145601496661</v>
+        <v>33.31145601496658</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.94682955286468</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>12.66598626258941</v>
+        <v>154.7533853488865</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6627887725705</v>
+        <v>72.5753896862733</v>
       </c>
       <c r="M31" t="n">
         <v>87.22047121212216</v>
       </c>
       <c r="N31" t="n">
-        <v>232.427156273506</v>
+        <v>102.4604520910346</v>
       </c>
       <c r="O31" t="n">
-        <v>67.95187600364973</v>
+        <v>210.0392750899468</v>
       </c>
       <c r="P31" t="n">
         <v>176.7749161433178</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2778327441695</v>
+        <v>82.10396739320906</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1170211610678</v>
+        <v>186.1170211610671</v>
       </c>
       <c r="K32" t="n">
         <v>331.5880989041889</v>
@@ -37078,7 +37078,7 @@
         <v>477.4486269105132</v>
       </c>
       <c r="N32" t="n">
-        <v>467.2012080524725</v>
+        <v>467.2012080524722</v>
       </c>
       <c r="O32" t="n">
         <v>402.4888554449851</v>
@@ -37090,7 +37090,7 @@
         <v>203.0066700413533</v>
       </c>
       <c r="R32" t="n">
-        <v>33.31145601496658</v>
+        <v>33.31145601496661</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.94682955286466</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7533853488865</v>
+        <v>12.66598626258941</v>
       </c>
       <c r="L34" t="n">
         <v>72.5753896862733</v>
       </c>
       <c r="M34" t="n">
-        <v>87.22047121212216</v>
+        <v>99.34116611594705</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4271562735059</v>
+        <v>232.427156273506</v>
       </c>
       <c r="O34" t="n">
-        <v>92.22970874781979</v>
+        <v>210.0392750899469</v>
       </c>
       <c r="P34" t="n">
         <v>176.7749161433178</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.10396739320909</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>260.4014563586879</v>
       </c>
       <c r="P35" t="n">
-        <v>184.9347061106103</v>
+        <v>184.9347061106107</v>
       </c>
       <c r="Q35" t="n">
         <v>60.9192709550562</v>
@@ -37388,16 +37388,16 @@
         <v>186.1401142843275</v>
       </c>
       <c r="L36" t="n">
-        <v>251.8890427718095</v>
+        <v>311.7526042299165</v>
       </c>
       <c r="M36" t="n">
         <v>417.1341140843384</v>
       </c>
       <c r="N36" t="n">
-        <v>426.2675289496109</v>
+        <v>28.79003775366093</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>337.6139297378433</v>
       </c>
       <c r="P36" t="n">
         <v>254.3724774483913</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.08439297349507</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>186.1401142843275</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>311.7526042299165</v>
@@ -37631,16 +37631,16 @@
         <v>417.1341140843384</v>
       </c>
       <c r="N39" t="n">
-        <v>28.79003775366047</v>
+        <v>426.2675289496109</v>
       </c>
       <c r="O39" t="n">
         <v>337.6139297378433</v>
       </c>
       <c r="P39" t="n">
-        <v>254.3724774483913</v>
+        <v>195.079008334124</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.9595148238606</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>189.5006998178918</v>
       </c>
       <c r="L41" t="n">
-        <v>318.8729425557169</v>
+        <v>287.5863932284255</v>
       </c>
       <c r="M41" t="n">
         <v>335.3612278242161</v>
@@ -37801,10 +37801,10 @@
         <v>60.9192709550562</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.492896357465963</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.79365296982575</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.08439297349507</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1401142843275</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>311.7526042299165</v>
+        <v>275.8442344852835</v>
       </c>
       <c r="M42" t="n">
         <v>417.1341140843384</v>
       </c>
       <c r="N42" t="n">
-        <v>314.4490645293436</v>
+        <v>434.1689789072689</v>
       </c>
       <c r="O42" t="n">
         <v>337.6139297378433</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>254.3724774483913</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.9595148238606</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.28654932729178</v>
       </c>
       <c r="J44" t="n">
         <v>44.02962207476996</v>
@@ -38032,7 +38032,7 @@
         <v>260.4014563586879</v>
       </c>
       <c r="P44" t="n">
-        <v>216.2212554379025</v>
+        <v>184.9347061106107</v>
       </c>
       <c r="Q44" t="n">
         <v>60.9192709550562</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.08439297349507</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>123.800326687928</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>275.8442344852835</v>
       </c>
       <c r="M45" t="n">
         <v>417.1341140843384</v>
@@ -38114,7 +38114,7 @@
         <v>254.3724774483913</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.9595148238606</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
